--- a/experimenten Tom/experimenten Tom.xlsx
+++ b/experimenten Tom/experimenten Tom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\experimenten Tom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850D107D-2529-4CF7-AE22-22B0A85C74BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAEE706-4FB3-4B51-A8DF-48EFAD304E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="113">
   <si>
     <t>LOADING CONDITION</t>
   </si>
@@ -362,10 +362,10 @@
     <t>Deck is 5001 mm from WL</t>
   </si>
   <si>
-    <t>Deck is 8001 mm from WL</t>
+    <t>Deck is 11001 mm from WL</t>
   </si>
   <si>
-    <t>Deck is 11001 mm from WL</t>
+    <t>Deck is 8501 mm from WL</t>
   </si>
 </sst>
 </file>
@@ -10163,10 +10163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C8DAFB-EDA1-4C09-A1B2-33FF7616589C}">
-  <dimension ref="A2:M351"/>
+  <dimension ref="A2:M350"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A351"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10208,7 +10208,7 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>161.708</v>
+        <v>159.251</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -10245,7 +10245,7 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>6.9989999999999997</v>
+        <v>6.4989999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -10253,7 +10253,7 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>6.9989999999999997</v>
+        <v>6.4989999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -10261,7 +10261,7 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>6.9989999999999997</v>
+        <v>6.4989999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -10282,7 +10282,7 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>15.231</v>
+        <v>15.085000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10298,13 +10298,13 @@
         <v>36</v>
       </c>
       <c r="B18">
-        <v>134.006</v>
+        <v>133.13499999999999</v>
       </c>
       <c r="C18">
         <v>-7.4249999999999998</v>
       </c>
       <c r="D18">
-        <v>6.9989999999999997</v>
+        <v>6.4989999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -10317,7 +10317,7 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>19466.934000000001</v>
+        <v>17493.25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10333,13 +10333,13 @@
         <v>39</v>
       </c>
       <c r="B22">
-        <v>72.325000000000003</v>
+        <v>72.978999999999999</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.1689999999999996</v>
+        <v>3.8780000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -10361,7 +10361,7 @@
         <v>41</v>
       </c>
       <c r="B24">
-        <v>0.55810000000000004</v>
+        <v>0.54490000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -10369,7 +10369,7 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <v>0.54769999999999996</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -10382,7 +10382,7 @@
         <v>43</v>
       </c>
       <c r="B27">
-        <v>3999.846</v>
+        <v>3893.1959999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -10390,13 +10390,13 @@
         <v>44</v>
       </c>
       <c r="B28">
-        <v>66.149000000000001</v>
+        <v>66.921999999999997</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>6.9989999999999997</v>
+        <v>6.4989999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -10404,13 +10404,13 @@
         <v>45</v>
       </c>
       <c r="B29">
-        <v>256675.97500000001</v>
+        <v>245186.83600000001</v>
       </c>
       <c r="C29" s="1">
-        <v>6430600</v>
+        <v>6047900</v>
       </c>
       <c r="D29" s="1">
-        <v>6687300</v>
+        <v>6293000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -10418,7 +10418,7 @@
         <v>46</v>
       </c>
       <c r="B30">
-        <v>4875.6220000000003</v>
+        <v>4658.04</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -10434,7 +10434,7 @@
         <v>48</v>
       </c>
       <c r="B32">
-        <v>182.852</v>
+        <v>167.18899999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10539,7 +10539,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>-6.3380000000000001</v>
+        <v>-4.2240000000000002</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -10547,167 +10547,167 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1.3620000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="B45">
-        <v>30.841000000000001</v>
+        <v>28.425000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>9.0630000000000006</v>
+        <v>10.943</v>
       </c>
       <c r="B46">
-        <v>64.600999999999999</v>
+        <v>59.497</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>16.763000000000002</v>
+        <v>18.526</v>
       </c>
       <c r="B47">
-        <v>95.042000000000002</v>
+        <v>87.516000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>24.463000000000001</v>
+        <v>26.11</v>
       </c>
       <c r="B48">
-        <v>121.05</v>
+        <v>111.42700000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>32.164000000000001</v>
+        <v>33.692999999999998</v>
       </c>
       <c r="B49">
-        <v>142.32599999999999</v>
+        <v>130.93799999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>39.863999999999997</v>
+        <v>41.277000000000001</v>
       </c>
       <c r="B50">
-        <v>158.88999999999999</v>
+        <v>146.06200000000001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>47.564999999999998</v>
+        <v>48.86</v>
       </c>
       <c r="B51">
-        <v>170.92400000000001</v>
+        <v>156.965</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>55.265000000000001</v>
+        <v>56.442999999999998</v>
       </c>
       <c r="B52">
-        <v>178.70099999999999</v>
+        <v>163.90299999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>62.965000000000003</v>
+        <v>64.027000000000001</v>
       </c>
       <c r="B53">
-        <v>182.55199999999999</v>
+        <v>167.18899999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>70.665999999999997</v>
+        <v>71.61</v>
       </c>
       <c r="B54">
-        <v>182.852</v>
+        <v>167.18299999999999</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>78.366</v>
+        <v>79.192999999999998</v>
       </c>
       <c r="B55">
-        <v>180.02600000000001</v>
+        <v>164.30099999999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>86.066000000000003</v>
+        <v>86.777000000000001</v>
       </c>
       <c r="B56">
-        <v>174.58199999999999</v>
+        <v>159.047</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>93.766999999999996</v>
+        <v>94.36</v>
       </c>
       <c r="B57">
-        <v>166.881</v>
+        <v>151.732</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>101.467</v>
+        <v>101.943</v>
       </c>
       <c r="B58">
-        <v>156.43600000000001</v>
+        <v>141.89099999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>109.16800000000001</v>
+        <v>109.527</v>
       </c>
       <c r="B59">
-        <v>142.37799999999999</v>
+        <v>128.768</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>116.86799999999999</v>
+        <v>117.11</v>
       </c>
       <c r="B60">
-        <v>123.754</v>
+        <v>111.581</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>124.568</v>
+        <v>124.694</v>
       </c>
       <c r="B61">
-        <v>100.889</v>
+        <v>90.748999999999995</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>132.26900000000001</v>
+        <v>132.27699999999999</v>
       </c>
       <c r="B62">
-        <v>77.018000000000001</v>
+        <v>69.22</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>139.96899999999999</v>
+        <v>139.86000000000001</v>
       </c>
       <c r="B63">
-        <v>52.228999999999999</v>
+        <v>46.94</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>147.66999999999999</v>
+        <v>147.44399999999999</v>
       </c>
       <c r="B64">
-        <v>23.591999999999999</v>
+        <v>21.173999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>155.37</v>
+        <v>155.02699999999999</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -11831,7 +11831,7 @@
         <v>74</v>
       </c>
       <c r="B129">
-        <v>6.9989999999999997</v>
+        <v>6.4989999999999997</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -12039,19 +12039,19 @@
         <v>9.7744444444444394</v>
       </c>
       <c r="C152">
-        <v>0.24540968909834601</v>
+        <v>0.24729591282263899</v>
       </c>
       <c r="D152">
-        <v>768729.64938453003</v>
+        <v>736268.69479264505</v>
       </c>
       <c r="E152">
-        <v>448686.429173354</v>
+        <v>428805.83359158301</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152">
-        <v>221664.04575083</v>
+        <v>212625.69327548501</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -12060,16 +12060,16 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>98379.174460344395</v>
+        <v>94837.167925576796</v>
       </c>
       <c r="K152">
         <v>0</v>
       </c>
       <c r="L152">
-        <v>0.23205315150926101</v>
+        <v>0.22119117049165199</v>
       </c>
       <c r="M152">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -12134,19 +12134,19 @@
         <v>3.0866666666666598</v>
       </c>
       <c r="C156">
-        <v>7.7497796557372406E-2</v>
+        <v>7.8093446154517604E-2</v>
       </c>
       <c r="D156">
-        <v>61576.9351815564</v>
+        <v>58937.045863996304</v>
       </c>
       <c r="E156">
-        <v>51766.155640255703</v>
+        <v>49479.471339174597</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156">
-        <v>0.113944147210208</v>
+        <v>0.128415899978606</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -12155,16 +12155,16 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>9810.6655971534601</v>
+        <v>9457.4461089217803</v>
       </c>
       <c r="K156">
         <v>0</v>
       </c>
       <c r="L156">
-        <v>0.24007641276498401</v>
+        <v>0.229734365614228</v>
       </c>
       <c r="M156">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -12175,19 +12175,19 @@
         <v>3.13811111111111</v>
       </c>
       <c r="C157">
-        <v>7.8789426499995305E-2</v>
+        <v>7.93950035904262E-2</v>
       </c>
       <c r="D157">
-        <v>63530.810752184203</v>
+        <v>60807.202044847203</v>
       </c>
       <c r="E157">
-        <v>53390.239047211202</v>
+        <v>51031.702407653102</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157">
-        <v>0.15873635972303801</v>
+        <v>0.17825627805703201</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>10140.4129686133</v>
+        <v>9775.3213809161007</v>
       </c>
       <c r="K157">
         <v>0</v>
       </c>
       <c r="L157">
-        <v>0.23994649363182</v>
+        <v>0.22959626764888</v>
       </c>
       <c r="M157">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -12216,19 +12216,19 @@
         <v>3.1895555555555499</v>
       </c>
       <c r="C158">
-        <v>8.0081056442618204E-2</v>
+        <v>8.0696561026334906E-2</v>
       </c>
       <c r="D158">
-        <v>65513.577662492498</v>
+        <v>62705.015288014802</v>
       </c>
       <c r="E158">
-        <v>55037.748053129697</v>
+        <v>52606.319534160299</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>0.21889951335857699</v>
+        <v>0.24496421683438899</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -12237,16 +12237,16 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>10475.610709849399</v>
+        <v>10098.4507896375</v>
       </c>
       <c r="K158">
         <v>0</v>
       </c>
       <c r="L158">
-        <v>0.23981915715796701</v>
+        <v>0.229460907468586</v>
       </c>
       <c r="M158">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -12257,19 +12257,19 @@
         <v>3.2410000000000001</v>
       </c>
       <c r="C159">
-        <v>8.1372686385241005E-2</v>
+        <v>8.1998118462243502E-2</v>
       </c>
       <c r="D159">
-        <v>67525.195797430104</v>
+        <v>64630.447785499702</v>
       </c>
       <c r="E159">
-        <v>56708.638025161701</v>
+        <v>54203.280029003799</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159">
-        <v>0.29895140662550701</v>
+        <v>0.33342140954962701</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -12278,16 +12278,16 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>10816.2588208616</v>
+        <v>10426.8343350862</v>
       </c>
       <c r="K159">
         <v>0</v>
       </c>
       <c r="L159">
-        <v>0.23969431099484401</v>
+        <v>0.22932818733729499</v>
       </c>
       <c r="M159">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -12298,19 +12298,19 @@
         <v>3.2924444444444401</v>
       </c>
       <c r="C160">
-        <v>8.2664316327863904E-2</v>
+        <v>8.3299675898152098E-2</v>
       </c>
       <c r="D160">
-        <v>69565.626985074603</v>
+        <v>66583.463703956397</v>
       </c>
       <c r="E160">
-        <v>58402.865168206103</v>
+        <v>55822.542003868803</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160">
-        <v>0.404515218341018</v>
+        <v>0.44968282553363498</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -12319,16 +12319,16 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>11162.3573016501</v>
+        <v>10760.4720172621</v>
       </c>
       <c r="K160">
         <v>0</v>
       </c>
       <c r="L160">
-        <v>0.239571867507967</v>
+        <v>0.229198014502179</v>
       </c>
       <c r="M160">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -12339,19 +12339,19 @@
         <v>3.34388888888888</v>
       </c>
       <c r="C161">
-        <v>8.3955946270486803E-2</v>
+        <v>8.4601233334060805E-2</v>
       </c>
       <c r="D161">
-        <v>71634.835182598894</v>
+        <v>68564.029380121501</v>
       </c>
       <c r="E161">
-        <v>60120.386496147599</v>
+        <v>57464.064344302198</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161">
-        <v>0.54253423646037502</v>
+        <v>0.60119965409693998</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -12360,16 +12360,16 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>11513.9061522148</v>
+        <v>11099.363836165099</v>
       </c>
       <c r="K161">
         <v>0</v>
       </c>
       <c r="L161">
-        <v>0.23945174346663101</v>
+        <v>0.22907030086591501</v>
       </c>
       <c r="M161">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -12380,19 +12380,19 @@
         <v>3.3953333333333302</v>
       </c>
       <c r="C162">
-        <v>8.5247576213109605E-2</v>
+        <v>8.59027907699694E-2</v>
       </c>
       <c r="D162">
-        <v>73732.786693787595</v>
+        <v>70572.113547915505</v>
       </c>
       <c r="E162">
-        <v>61861.159804514296</v>
+        <v>59127.8066835555</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162">
-        <v>0.72151671756267599</v>
+        <v>0.79707256464124099</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -12401,16 +12401,16 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>11870.9053725556</v>
+        <v>11443.509791795301</v>
       </c>
       <c r="K162">
         <v>0</v>
       </c>
       <c r="L162">
-        <v>0.23933385975846999</v>
+        <v>0.22894496268519601</v>
       </c>
       <c r="M162">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -12421,19 +12421,19 @@
         <v>3.4467777777777702</v>
       </c>
       <c r="C163">
-        <v>8.6539206155732504E-2</v>
+        <v>8.7204348205877996E-2</v>
       </c>
       <c r="D163">
-        <v>75859.450420314606</v>
+        <v>72607.687599294994</v>
       </c>
       <c r="E163">
-        <v>63625.1436444641</v>
+        <v>60813.729377698699</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
       <c r="G163">
-        <v>0.951813177700504</v>
+        <v>1.04833744354652</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -12442,16 +12442,16 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>12233.3549626727</v>
+        <v>11792.909884152699</v>
       </c>
       <c r="K163">
         <v>0</v>
       </c>
       <c r="L163">
-        <v>0.239218141126533</v>
+        <v>0.228821920293034</v>
       </c>
       <c r="M163">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -12462,19 +12462,19 @@
         <v>3.4982222222222199</v>
       </c>
       <c r="C164">
-        <v>8.7830836098355403E-2</v>
+        <v>8.8505905641786606E-2</v>
       </c>
       <c r="D164">
-        <v>78014.798148923102</v>
+        <v>74670.7258808365</v>
       </c>
       <c r="E164">
-        <v>65412.297298015699</v>
+        <v>62521.793481925197</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164">
-        <v>1.24592834141001</v>
+        <v>1.3682856738960301</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -12483,16 +12483,16 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <v>12601.254922566</v>
+        <v>12147.5641132373</v>
       </c>
       <c r="K164">
         <v>0</v>
       </c>
       <c r="L164">
-        <v>0.239104515926822</v>
+        <v>0.22870109784262399</v>
       </c>
       <c r="M164">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -12503,19 +12503,19 @@
         <v>3.5496666666666599</v>
       </c>
       <c r="C165">
-        <v>8.9122466040978301E-2</v>
+        <v>8.9807463077695299E-2</v>
       </c>
       <c r="D165">
-        <v>80198.804876556504</v>
+        <v>76761.206027925495</v>
       </c>
       <c r="E165">
-        <v>67222.580754448907</v>
+        <v>64251.9607279755</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165">
-        <v>1.61886987210767</v>
+        <v>1.7728209009651501</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -12524,16 +12524,16 @@
         <v>0</v>
       </c>
       <c r="J165">
-        <v>12974.6052522354</v>
+        <v>12507.472479049</v>
       </c>
       <c r="K165">
         <v>0</v>
       </c>
       <c r="L165">
-        <v>0.23899291590438501</v>
+        <v>0.22858242307082899</v>
       </c>
       <c r="M165">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -12544,19 +12544,19 @@
         <v>3.60111111111111</v>
       </c>
       <c r="C166">
-        <v>9.04140959836012E-2</v>
+        <v>9.1109020513603894E-2</v>
       </c>
       <c r="D166">
-        <v>82411.4491753568</v>
+        <v>78879.109338272407</v>
       </c>
       <c r="E166">
-        <v>69055.954687801001</v>
+        <v>66004.193502608599</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
-        <v>2.08853587467277</v>
+        <v>2.2808540758156299</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -12565,16 +12565,16 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>13353.405951681099</v>
+        <v>12872.6349815879</v>
       </c>
       <c r="K166">
         <v>0</v>
       </c>
       <c r="L166">
-        <v>0.23888327598633599</v>
+        <v>0.22846582707950899</v>
       </c>
       <c r="M166">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -12585,19 +12585,19 @@
         <v>3.65255555555555</v>
       </c>
       <c r="C167">
-        <v>9.1705725926224002E-2</v>
+        <v>9.2410577949512504E-2</v>
       </c>
       <c r="D167">
-        <v>84652.713599298004</v>
+        <v>81024.421186308304</v>
       </c>
       <c r="E167">
-        <v>70912.380435394007</v>
+        <v>67778.454827061199</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>2.6761430010345499</v>
+        <v>2.9147383929704498</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -12606,16 +12606,16 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <v>13737.6570209029</v>
+        <v>13243.051620853999</v>
       </c>
       <c r="K167">
         <v>0</v>
       </c>
       <c r="L167">
-        <v>0.238775534090273</v>
+        <v>0.22835124413311</v>
       </c>
       <c r="M167">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -12626,19 +12626,19 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="C168">
-        <v>9.2997355868846901E-2</v>
+        <v>9.37121353854211E-2</v>
       </c>
       <c r="D168">
-        <v>86922.585134035995</v>
+        <v>83197.131479817996</v>
       </c>
       <c r="E168">
-        <v>72791.819977331194</v>
+        <v>69574.708337432501</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168">
-        <v>3.4066968038048802</v>
+        <v>3.7007455380741598</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -12647,16 +12647,16 @@
         <v>0</v>
       </c>
       <c r="J168">
-        <v>14127.358459900899</v>
+        <v>13618.722396847301</v>
       </c>
       <c r="K168">
         <v>0</v>
       </c>
       <c r="L168">
-        <v>0.238669630946755</v>
+        <v>0.228238611471099</v>
       </c>
       <c r="M168">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -12667,19 +12667,19 @@
         <v>3.7554444444444401</v>
       </c>
       <c r="C169">
-        <v>9.42889858114698E-2</v>
+        <v>9.5013692821329807E-2</v>
       </c>
       <c r="D169">
-        <v>89221.055691355694</v>
+        <v>85397.235159952004</v>
       </c>
       <c r="E169">
-        <v>74694.235916906895</v>
+        <v>71392.918265943998</v>
       </c>
       <c r="F169">
         <v>0</v>
       </c>
       <c r="G169">
-        <v>4.30950577357547</v>
+        <v>4.66958444010187</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -12688,16 +12688,16 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <v>14522.5102686752</v>
+        <v>13999.647309567799</v>
       </c>
       <c r="K169">
         <v>0</v>
       </c>
       <c r="L169">
-        <v>0.23856550993463599</v>
+        <v>0.22812786913397501</v>
       </c>
       <c r="M169">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -12708,19 +12708,19 @@
         <v>3.8068888888888801</v>
       </c>
       <c r="C170">
-        <v>9.5580615754092602E-2</v>
+        <v>9.6315250257238402E-2</v>
       </c>
       <c r="D170">
-        <v>91548.122649366196</v>
+        <v>87624.732745518995</v>
       </c>
       <c r="E170">
-        <v>76619.591461875607</v>
+        <v>73233.049423020697</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170">
-        <v>5.4187402649259298</v>
+        <v>5.8569634827855497</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -12729,16 +12729,16 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <v>14923.1124472256</v>
+        <v>14385.8263590154</v>
       </c>
       <c r="K170">
         <v>0</v>
       </c>
       <c r="L170">
-        <v>0.238463116928149</v>
+        <v>0.228018959801676</v>
       </c>
       <c r="M170">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -12749,19 +12749,19 @@
         <v>3.8583333333333298</v>
       </c>
       <c r="C171">
-        <v>9.68722456967155E-2</v>
+        <v>9.7616807693146998E-2</v>
       </c>
       <c r="D171">
-        <v>93903.789439352302</v>
+        <v>89879.630922213793</v>
       </c>
       <c r="E171">
-        <v>78567.850406532802</v>
+        <v>75095.067180149097</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171">
-        <v>6.7740372672303</v>
+        <v>7.3041968744173298</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -12770,16 +12770,16 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>15329.164995552201</v>
+        <v>14777.2595451902</v>
       </c>
       <c r="K171">
         <v>0</v>
       </c>
       <c r="L171">
-        <v>0.23836240015476101</v>
+        <v>0.22791182864336701</v>
       </c>
       <c r="M171">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -12790,19 +12790,19 @@
         <v>3.9097777777777698</v>
       </c>
       <c r="C172">
-        <v>9.8163875639338399E-2</v>
+        <v>9.8918365129055705E-2</v>
       </c>
       <c r="D172">
-        <v>96288.066179928297</v>
+        <v>92161.943177166904</v>
       </c>
       <c r="E172">
-        <v>80538.977114561203</v>
+        <v>76978.937453467501</v>
       </c>
       <c r="F172">
         <v>0</v>
       </c>
       <c r="G172">
-        <v>8.4211517119810697</v>
+        <v>9.0588556071658495</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -12811,16 +12811,16 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <v>15740.667913655099</v>
+        <v>15173.9468680922</v>
       </c>
       <c r="K172">
         <v>0</v>
       </c>
       <c r="L172">
-        <v>0.23826331006290799</v>
+        <v>0.227806423177663</v>
       </c>
       <c r="M172">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -12831,19 +12831,19 @@
         <v>3.96122222222222</v>
       </c>
       <c r="C173">
-        <v>9.9455505581961298E-2</v>
+        <v>0.100219922564964</v>
       </c>
       <c r="D173">
-        <v>98700.970358865496</v>
+        <v>94471.690478928402</v>
       </c>
       <c r="E173">
-        <v>82532.936502599696</v>
+        <v>78884.626688047196</v>
       </c>
       <c r="F173">
         <v>0</v>
       </c>
       <c r="G173">
-        <v>10.4126547316899</v>
+        <v>11.175463159680699</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -12852,16 +12852,16 @@
         <v>0</v>
       </c>
       <c r="J173">
-        <v>16157.621201534101</v>
+        <v>15575.888327721401</v>
       </c>
       <c r="K173">
         <v>0</v>
       </c>
       <c r="L173">
-        <v>0.23816579919880099</v>
+        <v>0.227702693142424</v>
       </c>
       <c r="M173">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -12872,19 +12872,19 @@
         <v>4.0126666666666599</v>
       </c>
       <c r="C174">
-        <v>0.100747135524584</v>
+        <v>0.10152148000087199</v>
       </c>
       <c r="D174">
-        <v>101142.52756268501</v>
+        <v>96808.902002720206</v>
       </c>
       <c r="E174">
-        <v>84549.694024495999</v>
+        <v>80812.101842829099</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>12.808678999675299</v>
+        <v>13.716235813287801</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -12893,16 +12893,16 @@
         <v>0</v>
       </c>
       <c r="J174">
-        <v>16580.0248591893</v>
+        <v>15983.0839240778</v>
       </c>
       <c r="K174">
         <v>0</v>
       </c>
       <c r="L174">
-        <v>0.23806982209157401</v>
+        <v>0.227600590373361</v>
       </c>
       <c r="M174">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -12913,19 +12913,19 @@
         <v>4.0641111111111101</v>
       </c>
       <c r="C175">
-        <v>0.102038765467207</v>
+        <v>0.10282303743678101</v>
       </c>
       <c r="D175">
-        <v>103612.772253815</v>
+        <v>99173.615900504505</v>
       </c>
       <c r="E175">
-        <v>86589.215656206507</v>
+        <v>82761.330376177502</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
       <c r="G175">
-        <v>15.677710988430499</v>
+        <v>16.7518671656686</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -12934,16 +12934,16 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <v>17007.8788866207</v>
+        <v>16395.533657161301</v>
       </c>
       <c r="K175">
         <v>0</v>
       </c>
       <c r="L175">
-        <v>0.237975335146102</v>
+        <v>0.22750006869075001</v>
       </c>
       <c r="M175">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -12954,19 +12954,19 @@
         <v>4.1155555555555496</v>
       </c>
       <c r="C176">
-        <v>0.103330395409829</v>
+        <v>0.10412459487269</v>
       </c>
       <c r="D176">
-        <v>106111.748594825</v>
+        <v>101565.880115131</v>
       </c>
       <c r="E176">
-        <v>88651.467881307006</v>
+        <v>84732.280232020101</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
       <c r="G176">
-        <v>19.097429689972699</v>
+        <v>20.362356139693301</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -12975,16 +12975,16 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>17441.183283828301</v>
+        <v>16813.237526972</v>
       </c>
       <c r="K176">
         <v>0</v>
       </c>
       <c r="L176">
-        <v>0.237882296542897</v>
+        <v>0.22740108379361501</v>
       </c>
       <c r="M176">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -12995,19 +12995,19 @@
         <v>4.16699999999999</v>
       </c>
       <c r="C177">
-        <v>0.10462202535245201</v>
+        <v>0.105426152308598</v>
       </c>
       <c r="D177">
-        <v>108639.511318944</v>
+        <v>103985.75323755501</v>
       </c>
       <c r="E177">
-        <v>90736.417677084697</v>
+        <v>86724.919826543002</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
       <c r="G177">
-        <v>23.155591047715902</v>
+        <v>24.637877502012898</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -13016,16 +13016,16 @@
         <v>0</v>
       </c>
       <c r="J177">
-        <v>17879.938050812099</v>
+        <v>17236.195533509901</v>
       </c>
       <c r="K177">
         <v>0</v>
       </c>
       <c r="L177">
-        <v>0.23779066614452801</v>
+        <v>0.22730359316080201</v>
       </c>
       <c r="M177">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -13036,19 +13036,19 @@
         <v>4.2184444444444402</v>
       </c>
       <c r="C178">
-        <v>0.105913655295075</v>
+        <v>0.106727709744507</v>
       </c>
       <c r="D178">
-        <v>111196.12664581</v>
+        <v>106433.305405815</v>
       </c>
       <c r="E178">
-        <v>92844.032501179594</v>
+        <v>88739.218035411497</v>
       </c>
       <c r="F178">
         <v>0</v>
       </c>
       <c r="G178">
-        <v>27.9509570589587</v>
+        <v>29.6796936289368</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -13057,16 +13057,16 @@
         <v>0</v>
       </c>
       <c r="J178">
-        <v>18324.143187572099</v>
+        <v>17664.407676775001</v>
       </c>
       <c r="K178">
         <v>0</v>
       </c>
       <c r="L178">
-        <v>0.237700405408064</v>
+        <v>0.22720755595841699</v>
       </c>
       <c r="M178">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -13077,19 +13077,19 @@
         <v>4.2698888888888797</v>
       </c>
       <c r="C179">
-        <v>0.107205285237698</v>
+        <v>0.108029267180416</v>
       </c>
       <c r="D179">
-        <v>113781.67324107701</v>
+        <v>108908.619244245</v>
       </c>
       <c r="E179">
-        <v>94974.280278746097</v>
+        <v>90775.144181489595</v>
       </c>
       <c r="F179">
         <v>0</v>
       </c>
       <c r="G179">
-        <v>33.594268222872202</v>
+        <v>35.601105988662702</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -13098,16 +13098,16 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>18773.798694108398</v>
+        <v>18097.873956767198</v>
       </c>
       <c r="K179">
         <v>0</v>
       </c>
       <c r="L179">
-        <v>0.23761147730307799</v>
+        <v>0.227112932953141</v>
       </c>
       <c r="M179">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -13118,19 +13118,19 @@
         <v>4.3213333333333299</v>
       </c>
       <c r="C180">
-        <v>0.10849691518032099</v>
+        <v>0.109330824616324</v>
       </c>
       <c r="D180">
-        <v>116396.243218266</v>
+        <v>111411.79084107099</v>
       </c>
       <c r="E180">
-        <v>97127.129390112299</v>
+        <v>92832.6680230333</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
       <c r="G180">
-        <v>40.209257733506</v>
+        <v>42.528444551473299</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -13139,16 +13139,16 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <v>19228.904570420698</v>
+        <v>18536.5943734867</v>
       </c>
       <c r="K180">
         <v>0</v>
       </c>
       <c r="L180">
-        <v>0.23752384623481501</v>
+        <v>0.22701968643099299</v>
       </c>
       <c r="M180">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -13159,19 +13159,19 @@
         <v>4.3727777777777703</v>
       </c>
       <c r="C181">
-        <v>0.109788545122944</v>
+        <v>0.110632382052233</v>
       </c>
       <c r="D181">
-        <v>119039.943180969</v>
+        <v>113942.930762362</v>
       </c>
       <c r="E181">
-        <v>99302.548658907195</v>
+        <v>94911.759742334194</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>47.933705553233601</v>
+        <v>50.6020930952496</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -13180,16 +13180,16 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>19689.460816509301</v>
+        <v>18980.568926933302</v>
       </c>
       <c r="K181">
         <v>0</v>
       </c>
       <c r="L181">
-        <v>0.23743747797211401</v>
+        <v>0.22692778012112599</v>
       </c>
       <c r="M181">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -13200,19 +13200,19 @@
         <v>4.4242222222222196</v>
       </c>
       <c r="C182">
-        <v>0.111080175065567</v>
+        <v>0.111933939488141</v>
       </c>
       <c r="D182">
-        <v>121712.895303261</v>
+        <v>116502.16510004101</v>
       </c>
       <c r="E182">
-        <v>101500.507340635</v>
+        <v>97012.389934789695</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182">
-        <v>56.920530251369897</v>
+        <v>59.977548144468997</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -13221,16 +13221,16 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>20155.467432374098</v>
+        <v>19429.797617107</v>
       </c>
       <c r="K182">
         <v>0</v>
       </c>
       <c r="L182">
-        <v>0.23735233957976401</v>
+        <v>0.22683717912429999</v>
       </c>
       <c r="M182">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -13241,19 +13241,19 @@
         <v>4.47566666666666</v>
       </c>
       <c r="C183">
-        <v>0.11237180500819</v>
+        <v>0.11323549692404999</v>
       </c>
       <c r="D183">
-        <v>124415.238445952</v>
+        <v>119089.63655145701</v>
       </c>
       <c r="E183">
-        <v>103720.975111679</v>
+        <v>99134.529598381399</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>67.338916257346099</v>
+        <v>70.826509068408797</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -13262,16 +13262,16 @@
         <v>0</v>
       </c>
       <c r="J183">
-        <v>20626.9244180151</v>
+        <v>19884.280444008</v>
       </c>
       <c r="K183">
         <v>0</v>
       </c>
       <c r="L183">
-        <v>0.237268399354959</v>
+        <v>0.226747849845682</v>
       </c>
       <c r="M183">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -13282,19 +13282,19 @@
         <v>4.5271111111111102</v>
       </c>
       <c r="C184">
-        <v>0.11366343495081201</v>
+        <v>0.11453705435995901</v>
       </c>
       <c r="D184">
-        <v>127147.12930609399</v>
+        <v>121705.505527845</v>
       </c>
       <c r="E184">
-        <v>105963.922058702</v>
+        <v>101278.150123539</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184">
-        <v>79.375473959430593</v>
+        <v>83.337996669935293</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -13303,16 +13303,16 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>21103.831773432299</v>
+        <v>20344.017407636198</v>
       </c>
       <c r="K184">
         <v>0</v>
       </c>
       <c r="L184">
-        <v>0.237185626767555</v>
+        <v>0.226659759931678</v>
       </c>
       <c r="M184">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -13323,19 +13323,19 @@
         <v>4.5785555555555497</v>
       </c>
       <c r="C185">
-        <v>0.114955064893435</v>
+        <v>0.11583861179586701</v>
       </c>
       <c r="D185">
-        <v>129908.743596944</v>
+        <v>124349.95128878699</v>
       </c>
       <c r="E185">
-        <v>108229.31866843899</v>
+        <v>103443.223283374</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
       <c r="G185">
-        <v>93.235429879974603</v>
+        <v>97.719497421126903</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -13344,16 +13344,16 @@
         <v>0</v>
       </c>
       <c r="J185">
-        <v>21586.189498625699</v>
+        <v>20809.008507991501</v>
       </c>
       <c r="K185">
         <v>0</v>
       </c>
       <c r="L185">
-        <v>0.237103992403876</v>
+        <v>0.22657287821050101</v>
       </c>
       <c r="M185">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -13364,19 +13364,19 @@
         <v>4.63</v>
       </c>
       <c r="C186">
-        <v>0.116246694836058</v>
+        <v>0.117140169231776</v>
       </c>
       <c r="D186">
-        <v>132700.27725542401</v>
+        <v>127023.17309968499</v>
       </c>
       <c r="E186">
-        <v>110517.135817851</v>
+        <v>105629.72122426399</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186">
-        <v>109.143843977605</v>
+        <v>114.198130346944</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -13385,16 +13385,16 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>22073.997593595301</v>
+        <v>21279.253745073998</v>
       </c>
       <c r="K186">
         <v>0</v>
       </c>
       <c r="L186">
-        <v>0.23702346791380899</v>
+        <v>0.226487174636223</v>
       </c>
       <c r="M186">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -13405,19 +13405,19 @@
         <v>4.6814444444444403</v>
       </c>
       <c r="C187">
-        <v>0.11753832477868099</v>
+        <v>0.118441726667685</v>
       </c>
       <c r="D187">
-        <v>135521.94767394601</v>
+        <v>129725.391409078</v>
       </c>
       <c r="E187">
-        <v>112827.34476463799</v>
+        <v>107837.61645677</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>127.34685096657201</v>
+        <v>133.02183342373999</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -13426,16 +13426,16 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>22567.256058341001</v>
+        <v>21754.753118883698</v>
       </c>
       <c r="K187">
         <v>0</v>
       </c>
       <c r="L187">
-        <v>0.236944025960967</v>
+        <v>0.226402620236061</v>
       </c>
       <c r="M187">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -13446,19 +13446,19 @@
         <v>4.7328888888888798</v>
       </c>
       <c r="C188">
-        <v>0.118829954721304</v>
+        <v>0.119743284103593</v>
       </c>
       <c r="D188">
-        <v>138373.99495334199</v>
+        <v>132456.849042544</v>
       </c>
       <c r="E188">
-        <v>115159.917138074</v>
+        <v>110066.88184687799</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>148.112922404198</v>
+        <v>154.46056624608099</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -13467,16 +13467,16 @@
         <v>0</v>
       </c>
       <c r="J188">
-        <v>23065.964892863001</v>
+        <v>22235.506629420499</v>
       </c>
       <c r="K188">
         <v>0</v>
       </c>
       <c r="L188">
-        <v>0.236865640175702</v>
+        <v>0.22631918706068899</v>
       </c>
       <c r="M188">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -13487,19 +13487,19 @@
         <v>4.78433333333333</v>
       </c>
       <c r="C189">
-        <v>0.120121584663927</v>
+        <v>0.121044841539502</v>
       </c>
       <c r="D189">
-        <v>141256.68317350899</v>
+        <v>135217.81240984399</v>
       </c>
       <c r="E189">
-        <v>117514.82493016899</v>
+        <v>112317.490607536</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189">
-        <v>171.73414617943399</v>
+        <v>178.80752562309601</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -13508,16 +13508,16 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>23570.124097161199</v>
+        <v>22721.5142766846</v>
       </c>
       <c r="K189">
         <v>0</v>
       </c>
       <c r="L189">
-        <v>0.236788285110794</v>
+        <v>0.22623684813735701</v>
       </c>
       <c r="M189">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -13528,19 +13528,19 @@
         <v>4.8357777777777704</v>
       </c>
       <c r="C190">
-        <v>0.12141321460655</v>
+        <v>0.122346398975411</v>
       </c>
       <c r="D190">
-        <v>144170.30167830299</v>
+        <v>138008.572721865</v>
       </c>
       <c r="E190">
-        <v>119892.040487128</v>
+        <v>114589.41629049501</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>198.527519939043</v>
+        <v>206.380370694492</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -13549,16 +13549,16 @@
         <v>0</v>
       </c>
       <c r="J190">
-        <v>24079.733671235499</v>
+        <v>23212.776060675798</v>
       </c>
       <c r="K190">
         <v>0</v>
       </c>
       <c r="L190">
-        <v>0.23671193619961101</v>
+        <v>0.22615557742564699</v>
       </c>
       <c r="M190">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -13569,19 +13569,19 @@
         <v>4.8872222222222197</v>
       </c>
       <c r="C191">
-        <v>0.12270484454917301</v>
+        <v>0.123647956411319</v>
       </c>
       <c r="D191">
-        <v>147115.166371111</v>
+        <v>140829.44721391401</v>
       </c>
       <c r="E191">
-        <v>122291.536501112</v>
+        <v>116882.632778414</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191">
-        <v>228.83625491288399</v>
+        <v>237.52245410602399</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -13590,16 +13590,16 @@
         <v>0</v>
       </c>
       <c r="J191">
-        <v>24594.793615086099</v>
+        <v>23709.291981394199</v>
       </c>
       <c r="K191">
         <v>0</v>
       </c>
       <c r="L191">
-        <v>0.23663656971659999</v>
+        <v>0.22607534977567401</v>
       </c>
       <c r="M191">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -13610,19 +13610,19 @@
         <v>4.9386666666666601</v>
       </c>
       <c r="C192">
-        <v>0.123996474491795</v>
+        <v>0.12494951384722799</v>
       </c>
       <c r="D192">
-        <v>150091.62101752</v>
+        <v>143680.780371834</v>
       </c>
       <c r="E192">
-        <v>124713.286002261</v>
+        <v>119197.11427724001</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>263.03108654581598</v>
+        <v>272.60405575427598</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -13631,16 +13631,16 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <v>25115.303928712801</v>
+        <v>24211.0620388397</v>
       </c>
       <c r="K192">
         <v>0</v>
       </c>
       <c r="L192">
-        <v>0.23656216273994701</v>
+        <v>0.22599614088858</v>
       </c>
       <c r="M192">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -13651,19 +13651,19 @@
         <v>4.9901111111111103</v>
       </c>
       <c r="C193">
-        <v>0.12528810443441801</v>
+        <v>0.12625107128313601</v>
       </c>
       <c r="D193">
-        <v>153100.03855142201</v>
+        <v>146562.94515745199</v>
       </c>
       <c r="E193">
-        <v>127157.262350996</v>
+        <v>121532.835308839</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193">
-        <v>301.511588310599</v>
+        <v>312.023615600396</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -13672,16 +13672,16 @@
         <v>0</v>
       </c>
       <c r="J193">
-        <v>25641.2646121158</v>
+        <v>24718.086233012498</v>
       </c>
       <c r="K193">
         <v>0</v>
       </c>
       <c r="L193">
-        <v>0.236488693116258</v>
+        <v>0.225917927279185</v>
       </c>
       <c r="M193">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -13692,19 +13692,19 @@
         <v>5.0415555555555498</v>
       </c>
       <c r="C194">
-        <v>0.12657973437704101</v>
+        <v>0.12755262871904499</v>
       </c>
       <c r="D194">
-        <v>156140.82238092201</v>
+        <v>149476.34422984201</v>
       </c>
       <c r="E194">
-        <v>129623.43923056401</v>
+        <v>123889.77070386799</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>344.70748506308502</v>
+        <v>356.20896206132898</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -13713,16 +13713,16 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <v>26172.675665294901</v>
+        <v>25230.364563912401</v>
       </c>
       <c r="K194">
         <v>0</v>
       </c>
       <c r="L194">
-        <v>0.236416139427153</v>
+        <v>0.225840686240626</v>
       </c>
       <c r="M194">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -13733,19 +13733,19 @@
         <v>5.093</v>
       </c>
       <c r="C195">
-        <v>0.127871364319664</v>
+        <v>0.128854186154954</v>
       </c>
       <c r="D195">
-        <v>159214.40769039601</v>
+        <v>152421.411158937</v>
       </c>
       <c r="E195">
-        <v>132111.790639838</v>
+        <v>126267.895594883</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195">
-        <v>393.079962307377</v>
+        <v>405.61853251403602</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -13754,16 +13754,16 @@
         <v>0</v>
       </c>
       <c r="J195">
-        <v>26709.537088250301</v>
+        <v>25747.897031539502</v>
       </c>
       <c r="K195">
         <v>0</v>
       </c>
       <c r="L195">
-        <v>0.23634448095762101</v>
+        <v>0.225764395810896</v>
       </c>
       <c r="M195">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -13774,19 +13774,19 @@
         <v>5.1444444444444404</v>
       </c>
       <c r="C196">
-        <v>0.129162994262287</v>
+        <v>0.13015574359086199</v>
       </c>
       <c r="D196">
-        <v>162321.26273508399</v>
+        <v>155398.611628054</v>
       </c>
       <c r="E196">
-        <v>134622.290886339</v>
+        <v>128667.185409667</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>447.12296776358698</v>
+        <v>460.742582492407</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -13795,16 +13795,16 @@
         <v>0</v>
       </c>
       <c r="J196">
-        <v>27251.848880981801</v>
+        <v>26270.683635893802</v>
       </c>
       <c r="K196">
         <v>0</v>
       </c>
       <c r="L196">
-        <v>0.23627369766606099</v>
+        <v>0.225689034741131</v>
       </c>
       <c r="M196">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -13815,19 +13815,19 @@
         <v>5.1958888888888799</v>
       </c>
       <c r="C197">
-        <v>0.13045462420491</v>
+        <v>0.131457301026771</v>
       </c>
       <c r="D197">
-        <v>165461.890124645</v>
+        <v>158408.44462196401</v>
       </c>
       <c r="E197">
-        <v>137154.91457948301</v>
+        <v>131087.615864772</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>507.36450167327598</v>
+        <v>522.104380216751</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -13836,16 +13836,16 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>27799.611043489502</v>
+        <v>26798.7243769753</v>
       </c>
       <c r="K197">
         <v>0</v>
       </c>
       <c r="L197">
-        <v>0.23620377015586899</v>
+        <v>0.22561458246555599</v>
       </c>
       <c r="M197">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -13856,19 +13856,19 @@
         <v>5.2473333333333301</v>
       </c>
       <c r="C198">
-        <v>0.13174625414753299</v>
+        <v>0.13275885846268001</v>
       </c>
       <c r="D198">
-        <v>168636.828092157</v>
+        <v>161451.44359721901</v>
       </c>
       <c r="E198">
-        <v>139709.63662404701</v>
+        <v>133529.16295926299</v>
       </c>
       <c r="F198">
         <v>0</v>
       </c>
       <c r="G198">
-        <v>574.36789233661602</v>
+        <v>590.26138317118296</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -13877,16 +13877,16 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <v>28352.823575773498</v>
+        <v>27332.0192547839</v>
       </c>
       <c r="K198">
         <v>0</v>
       </c>
       <c r="L198">
-        <v>0.23613467964850501</v>
+        <v>0.22554101907298299</v>
       </c>
       <c r="M198">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -13897,19 +13897,19 @@
         <v>5.2987777777777696</v>
       </c>
       <c r="C199">
-        <v>0.13303788409015599</v>
+        <v>0.134060415898588</v>
       </c>
       <c r="D199">
-        <v>171846.65174512201</v>
+        <v>164528.177631522</v>
       </c>
       <c r="E199">
-        <v>142286.43221383801</v>
+        <v>135991.80296866799</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>648.73305345016104</v>
+        <v>665.80639353446702</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -13918,16 +13918,16 @@
         <v>0</v>
       </c>
       <c r="J199">
-        <v>28911.486477833601</v>
+        <v>27870.5682693198</v>
       </c>
       <c r="K199">
         <v>0</v>
       </c>
       <c r="L199">
-        <v>0.23606640795792999</v>
+        <v>0.22546832527976299</v>
       </c>
       <c r="M199">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -13938,19 +13938,19 @@
         <v>5.3502222222222198</v>
       </c>
       <c r="C200">
-        <v>0.13432951403277801</v>
+        <v>0.13536197333449701</v>
       </c>
       <c r="D200">
-        <v>175091.974295124</v>
+        <v>167639.25254905401</v>
       </c>
       <c r="E200">
-        <v>144885.27682555001</v>
+        <v>138475.51243909699</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>731.09771990416596</v>
+        <v>749.36868937400595</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -13959,16 +13959,16 @@
         <v>0</v>
       </c>
       <c r="J200">
-        <v>29475.599749669898</v>
+        <v>28414.371420582698</v>
       </c>
       <c r="K200">
         <v>0</v>
       </c>
       <c r="L200">
-        <v>0.23599893746634301</v>
+        <v>0.22539648240410901</v>
       </c>
       <c r="M200">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -13979,19 +13979,19 @@
         <v>5.4016666666666602</v>
       </c>
       <c r="C201">
-        <v>0.13562114397540101</v>
+        <v>0.136663530770405</v>
       </c>
       <c r="D201">
-        <v>178373.44826290899</v>
+        <v>170785.312018764</v>
       </c>
       <c r="E201">
-        <v>147506.14621282299</v>
+        <v>140980.268181564</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201">
-        <v>822.13865880295305</v>
+        <v>841.61512862770905</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -14000,16 +14000,16 @@
         <v>0</v>
       </c>
       <c r="J201">
-        <v>30045.1633912824</v>
+        <v>28963.428708572901</v>
       </c>
       <c r="K201">
         <v>0</v>
       </c>
       <c r="L201">
-        <v>0.23593225110113</v>
+        <v>0.225325472341705</v>
       </c>
       <c r="M201">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -14020,19 +14020,19 @@
         <v>5.4531111111111104</v>
       </c>
       <c r="C202">
-        <v>0.13691277391802401</v>
+        <v>0.13796508820631401</v>
       </c>
       <c r="D202">
-        <v>181691.766655732</v>
+        <v>173967.03862276801</v>
       </c>
       <c r="E202">
-        <v>150149.01640047401</v>
+        <v>143506.04726646101</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>922.57285258629599</v>
+        <v>943.25122301678505</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -14041,16 +14041,16 @@
         <v>0</v>
       </c>
       <c r="J202">
-        <v>30620.177402671201</v>
+        <v>29517.740133290299</v>
       </c>
       <c r="K202">
         <v>0</v>
       </c>
       <c r="L202">
-        <v>0.235866332312963</v>
+        <v>0.225255277542525</v>
       </c>
       <c r="M202">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -14061,19 +14061,19 @@
         <v>5.5045555555555499</v>
       </c>
       <c r="C203">
-        <v>0.138204403860647</v>
+        <v>0.13926664564222299</v>
       </c>
       <c r="D203">
-        <v>185047.66411398599</v>
+        <v>177185.15489209801</v>
       </c>
       <c r="E203">
-        <v>152813.863678903</v>
+        <v>146052.827018215</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>1033.1586512466099</v>
+        <v>1055.0221791475501</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -14082,16 +14082,16 @@
         <v>0</v>
       </c>
       <c r="J203">
-        <v>31200.641783836101</v>
+        <v>30077.305694734801</v>
       </c>
       <c r="K203">
         <v>0</v>
       </c>
       <c r="L203">
-        <v>0.235801165054974</v>
+        <v>0.22518588098879699</v>
       </c>
       <c r="M203">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -14102,19 +14102,19 @@
         <v>5.556</v>
       </c>
       <c r="C204">
-        <v>0.13949603380327</v>
+        <v>0.140568203078131</v>
       </c>
       <c r="D204">
-        <v>188441.918024196</v>
+        <v>180440.42430718199</v>
       </c>
       <c r="E204">
-        <v>155500.66459866799</v>
+        <v>148620.58501009599</v>
       </c>
       <c r="F204">
         <v>0</v>
       </c>
       <c r="G204">
-        <v>1154.6968907507501</v>
+        <v>1177.7139041795499</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -14123,16 +14123,16 @@
         <v>0</v>
       </c>
       <c r="J204">
-        <v>31786.556534777199</v>
+        <v>30642.125392906601</v>
       </c>
       <c r="K204">
         <v>0</v>
       </c>
       <c r="L204">
-        <v>0.23573673376294599</v>
+        <v>0.22511726617403299</v>
       </c>
       <c r="M204">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -14143,19 +14143,19 @@
         <v>5.6074444444444396</v>
       </c>
       <c r="C205">
-        <v>0.14078766374589299</v>
+        <v>0.14186976051403999</v>
       </c>
       <c r="D205">
-        <v>191875.34959561401</v>
+        <v>183733.652260576</v>
       </c>
       <c r="E205">
-        <v>158209.39596522099</v>
+        <v>151209.299059176</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
       <c r="G205">
-        <v>1288.0319748986001</v>
+        <v>1312.1539735947499</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -14164,16 +14164,16 @@
         <v>0</v>
       </c>
       <c r="J205">
-        <v>32377.921655494501</v>
+        <v>31212.199227805399</v>
       </c>
       <c r="K205">
         <v>0</v>
       </c>
       <c r="L205">
-        <v>0.23567302333646001</v>
+        <v>0.22504941708307899</v>
       </c>
       <c r="M205">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -14184,19 +14184,19 @@
         <v>5.65888888888888</v>
       </c>
       <c r="C206">
-        <v>0.14207929368851599</v>
+        <v>0.143171317949949</v>
       </c>
       <c r="D206">
-        <v>195348.824897805</v>
+        <v>187065.686979727</v>
       </c>
       <c r="E206">
-        <v>160940.034833793</v>
+        <v>153818.94722144699</v>
       </c>
       <c r="F206">
         <v>0</v>
       </c>
       <c r="G206">
-        <v>1434.0529180235801</v>
+        <v>1459.2125588485601</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -14205,16 +14205,16 @@
         <v>0</v>
       </c>
       <c r="J206">
-        <v>32974.737145988001</v>
+        <v>31787.527199431501</v>
       </c>
       <c r="K206">
         <v>0</v>
       </c>
       <c r="L206">
-        <v>0.23561001912094801</v>
+        <v>0.22498231817311501</v>
       </c>
       <c r="M206">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -14225,19 +14225,19 @@
         <v>5.7103333333333302</v>
       </c>
       <c r="C207">
-        <v>0.14337092363113901</v>
+        <v>0.14447287538585701</v>
       </c>
       <c r="D207">
-        <v>198863.25585690499</v>
+        <v>190437.420407878</v>
       </c>
       <c r="E207">
-        <v>163692.55850443899</v>
+        <v>156449.507787068</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
       <c r="G207">
-        <v>1593.6943462087399</v>
+        <v>1619.8033130249501</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -14246,16 +14246,16 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <v>33577.003006257699</v>
+        <v>32368.109307784802</v>
       </c>
       <c r="K207">
         <v>0</v>
       </c>
       <c r="L207">
-        <v>0.23554770689058699</v>
+        <v>0.224915954355556</v>
       </c>
       <c r="M207">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -14266,19 +14266,19 @@
         <v>5.7617777777777697</v>
       </c>
       <c r="C208">
-        <v>0.14466255357376101</v>
+        <v>0.145774432821766</v>
       </c>
       <c r="D208">
-        <v>202419.60120855799</v>
+        <v>193849.78904156099</v>
       </c>
       <c r="E208">
-        <v>166466.94451720701</v>
+        <v>159100.95927575699</v>
       </c>
       <c r="F208">
         <v>0</v>
       </c>
       <c r="G208">
-        <v>1767.9374550474499</v>
+        <v>1794.88421293786</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -14287,16 +14287,16 @@
         <v>0</v>
       </c>
       <c r="J208">
-        <v>34184.719236303601</v>
+        <v>32953.945552865203</v>
       </c>
       <c r="K208">
         <v>0</v>
       </c>
       <c r="L208">
-        <v>0.235486072832013</v>
+        <v>0.22485031097880301</v>
       </c>
       <c r="M208">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -14307,19 +14307,19 @@
         <v>5.8132222222222198</v>
       </c>
       <c r="C209">
-        <v>0.14595418351638401</v>
+        <v>0.14707599025767401</v>
       </c>
       <c r="D209">
-        <v>206018.86740586601</v>
+        <v>197303.77472313901</v>
       </c>
       <c r="E209">
-        <v>169263.17064746699</v>
+        <v>161773.280432314</v>
       </c>
       <c r="F209">
         <v>0</v>
       </c>
       <c r="G209">
-        <v>1957.81092227299</v>
+        <v>1985.4583561516199</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -14328,16 +14328,16 @@
         <v>0</v>
       </c>
       <c r="J209">
-        <v>34797.885836125701</v>
+        <v>33545.0359346728</v>
       </c>
       <c r="K209">
         <v>0</v>
       </c>
       <c r="L209">
-        <v>0.23542510352877899</v>
+        <v>0.224785373811799</v>
       </c>
       <c r="M209">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -14348,19 +14348,19 @@
         <v>5.8646666666666603</v>
       </c>
       <c r="C210">
-        <v>0.147245813459007</v>
+        <v>0.148377547693583</v>
       </c>
       <c r="D210">
-        <v>209662.10948060799</v>
+        <v>200800.40538631499</v>
       </c>
       <c r="E210">
-        <v>172081.21490135201</v>
+        <v>164466.450222263</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
       <c r="G210">
-        <v>2164.3917735318601</v>
+        <v>2192.5747108440801</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -14369,16 +14369,16 @@
         <v>0</v>
       </c>
       <c r="J210">
-        <v>35416.502805723998</v>
+        <v>34141.380453207603</v>
       </c>
       <c r="K210">
         <v>0</v>
       </c>
       <c r="L210">
-        <v>0.23536478594654001</v>
+        <v>0.22472112902834099</v>
       </c>
       <c r="M210">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -14389,19 +14389,19 @@
         <v>5.9161111111111104</v>
       </c>
       <c r="C211">
-        <v>0.14853744340163</v>
+        <v>0.14967910512949201</v>
       </c>
       <c r="D211">
-        <v>213350.43185535501</v>
+        <v>204340.755751408</v>
       </c>
       <c r="E211">
-        <v>174921.05551134</v>
+        <v>167180.447827625</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="G211">
-        <v>2388.80619891673</v>
+        <v>2417.3288153124599</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -14410,16 +14410,16 @@
         <v>0</v>
       </c>
       <c r="J211">
-        <v>36040.5701450985</v>
+        <v>34742.979108469597</v>
       </c>
       <c r="K211">
         <v>0</v>
       </c>
       <c r="L211">
-        <v>0.235305107418912</v>
+        <v>0.224657563192115</v>
       </c>
       <c r="M211">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -14430,19 +14430,19 @@
         <v>5.96755555555555</v>
       </c>
       <c r="C212">
-        <v>0.14982907334425299</v>
+        <v>0.15098066256539999</v>
       </c>
       <c r="D212">
-        <v>217084.98910289301</v>
+        <v>207925.947966123</v>
       </c>
       <c r="E212">
-        <v>177782.67093195301</v>
+        <v>169915.252642807</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
       <c r="G212">
-        <v>2632.2303166902998</v>
+        <v>2660.8634228566102</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -14451,16 +14451,16 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>36670.087854249097</v>
+        <v>35349.831900458703</v>
       </c>
       <c r="K212">
         <v>0</v>
       </c>
       <c r="L212">
-        <v>0.235246055633971</v>
+        <v>0.22459466324239799</v>
       </c>
       <c r="M212">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -14471,19 +14471,19 @@
         <v>6.0190000000000001</v>
       </c>
       <c r="C213">
-        <v>0.15112070328687599</v>
+        <v>0.152282220001309</v>
       </c>
       <c r="D213">
-        <v>220866.98664841999</v>
+        <v>211557.15218785999</v>
       </c>
       <c r="E213">
-        <v>180666.039835576</v>
+        <v>172670.84427059701</v>
       </c>
       <c r="F213">
         <v>0</v>
       </c>
       <c r="G213">
-        <v>2895.8908796680798</v>
+        <v>2924.3690880873</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -14492,16 +14492,16 @@
         <v>0</v>
       </c>
       <c r="J213">
-        <v>37305.055933176001</v>
+        <v>35961.938829175102</v>
       </c>
       <c r="K213">
         <v>0</v>
       </c>
       <c r="L213">
-        <v>0.235187618621366</v>
+        <v>0.224532416480417</v>
       </c>
       <c r="M213">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -14512,19 +14512,19 @@
         <v>6.0704444444444396</v>
       </c>
       <c r="C214">
-        <v>0.15241233322949899</v>
+        <v>0.15358377743721799</v>
       </c>
       <c r="D214">
-        <v>224697.68141063699</v>
+        <v>215235.58710676801</v>
       </c>
       <c r="E214">
-        <v>183571.14110838799</v>
+        <v>175447.20251827801</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="G214">
-        <v>3181.06592036967</v>
+        <v>3209.08469387163</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -14533,16 +14533,16 @@
         <v>0</v>
       </c>
       <c r="J214">
-        <v>37945.474381879103</v>
+        <v>36579.299894618598</v>
       </c>
       <c r="K214">
         <v>0</v>
       </c>
       <c r="L214">
-        <v>0.23512978474000101</v>
+        <v>0.22447081055630599</v>
       </c>
       <c r="M214">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -14553,19 +14553,19 @@
         <v>6.1218888888888801</v>
       </c>
       <c r="C215">
-        <v>0.15370396317212201</v>
+        <v>0.154885334873126</v>
       </c>
       <c r="D215">
-        <v>228578.382381473</v>
+        <v>218962.52041527501</v>
       </c>
       <c r="E215">
-        <v>186497.95384640701</v>
+        <v>178244.30739383699</v>
       </c>
       <c r="F215">
         <v>0</v>
       </c>
       <c r="G215">
-        <v>3489.0853347080201</v>
+        <v>3516.2979246492901</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -14574,16 +14574,16 @@
         <v>0</v>
       </c>
       <c r="J215">
-        <v>38591.343200358402</v>
+        <v>37201.9150967893</v>
       </c>
       <c r="K215">
         <v>0</v>
       </c>
       <c r="L215">
-        <v>0.23507254266626201</v>
+        <v>0.224409833456644</v>
       </c>
       <c r="M215">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -14594,19 +14594,19 @@
         <v>6.1733333333333302</v>
       </c>
       <c r="C216">
-        <v>0.15499559311474401</v>
+        <v>0.15618689230903501</v>
       </c>
       <c r="D216">
-        <v>232510.45115119699</v>
+        <v>222739.26923802</v>
       </c>
       <c r="E216">
-        <v>189446.45735163399</v>
+        <v>181062.139102288</v>
       </c>
       <c r="F216">
         <v>0</v>
       </c>
       <c r="G216">
-        <v>3821.3314109490002</v>
+        <v>3847.3457000451599</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -14615,16 +14615,16 @@
         <v>0</v>
       </c>
       <c r="J216">
-        <v>39242.662388613797</v>
+        <v>37829.784435687099</v>
       </c>
       <c r="K216">
         <v>0</v>
       </c>
       <c r="L216">
-        <v>0.235015881382762</v>
+        <v>0.224349473492537</v>
       </c>
       <c r="M216">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -14635,19 +14635,19 @@
         <v>6.2247777777777697</v>
       </c>
       <c r="C217">
-        <v>0.156287223057367</v>
+        <v>0.157488449744943</v>
       </c>
       <c r="D217">
-        <v>236495.30239388</v>
+        <v>226567.200541561</v>
       </c>
       <c r="E217">
-        <v>192416.63112831299</v>
+        <v>183900.67804208101</v>
       </c>
       <c r="F217">
         <v>0</v>
       </c>
       <c r="G217">
-        <v>4179.23931892165</v>
+        <v>4203.6145881675002</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -14656,16 +14656,16 @@
         <v>0</v>
       </c>
       <c r="J217">
-        <v>39899.431946645498</v>
+        <v>38462.907911312199</v>
       </c>
       <c r="K217">
         <v>0</v>
       </c>
       <c r="L217">
-        <v>0.23495979016757701</v>
+        <v>0.224289719288217</v>
       </c>
       <c r="M217">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -14676,19 +14676,19 @@
         <v>6.2762222222222199</v>
       </c>
       <c r="C218">
-        <v>0.15757885299999</v>
+        <v>0.15879000718085201</v>
       </c>
       <c r="D218">
-        <v>240534.40433305301</v>
+        <v>230447.73153992699</v>
       </c>
       <c r="E218">
-        <v>195408.45487926999</v>
+        <v>186759.90480161199</v>
       </c>
       <c r="F218">
         <v>0</v>
       </c>
       <c r="G218">
-        <v>4564.2975793288497</v>
+        <v>4586.5412146505696</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -14697,16 +14697,16 @@
         <v>0</v>
       </c>
       <c r="J218">
-        <v>40561.651874453302</v>
+        <v>39101.285523664403</v>
       </c>
       <c r="K218">
         <v>0</v>
       </c>
       <c r="L218">
-        <v>0.23490425858394301</v>
+        <v>0.22423055977013501</v>
       </c>
       <c r="M218">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -14717,19 +14717,19 @@
         <v>6.3276666666666603</v>
       </c>
       <c r="C219">
-        <v>0.15887048294261299</v>
+        <v>0.160091564616761</v>
       </c>
       <c r="D219">
-        <v>244629.27920279701</v>
+        <v>234382.33009494099</v>
       </c>
       <c r="E219">
-        <v>198421.90850236901</v>
+        <v>189639.80015582501</v>
       </c>
       <c r="F219">
         <v>0</v>
       </c>
       <c r="G219">
-        <v>4978.0485283904</v>
+        <v>4997.6126663719697</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -14738,16 +14738,16 @@
         <v>0</v>
       </c>
       <c r="J219">
-        <v>41229.322172037399</v>
+        <v>39744.917272743798</v>
       </c>
       <c r="K219">
         <v>0</v>
       </c>
       <c r="L219">
-        <v>0.234849276470392</v>
+        <v>0.22417198415652201</v>
       </c>
       <c r="M219">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -14758,19 +14758,19 @@
         <v>6.3791111111111096</v>
       </c>
       <c r="C220">
-        <v>0.16016211288523599</v>
+        <v>0.16139312205266901</v>
       </c>
       <c r="D220">
-        <v>248781.50370069701</v>
+        <v>238372.515079042</v>
       </c>
       <c r="E220">
-        <v>201456.972087042</v>
+        <v>192540.345062896</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220">
-        <v>5422.0887742576697</v>
+        <v>5438.36685759593</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -14779,16 +14779,16 @@
         <v>0</v>
       </c>
       <c r="J220">
-        <v>41902.442839397598</v>
+        <v>40393.803158550298</v>
       </c>
       <c r="K220">
         <v>0</v>
       </c>
       <c r="L220">
-        <v>0.23479483393131501</v>
+        <v>0.22411398194738399</v>
       </c>
       <c r="M220">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -14799,19 +14799,19 @@
         <v>6.43055555555555</v>
       </c>
       <c r="C221">
-        <v>0.16145374282785899</v>
+        <v>0.16269467948857799</v>
       </c>
       <c r="D221">
-        <v>252992.70939647901</v>
+        <v>242419.856630575</v>
       </c>
       <c r="E221">
-        <v>204513.62591091901</v>
+        <v>195461.52066101</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
       <c r="G221">
-        <v>5898.0696090255697</v>
+        <v>5910.3927884806799</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -14820,16 +14820,16 @@
         <v>0</v>
       </c>
       <c r="J221">
-        <v>42581.013876534103</v>
+        <v>41047.943181084098</v>
       </c>
       <c r="K221">
         <v>0</v>
       </c>
       <c r="L221">
-        <v>0.23474092132791399</v>
+        <v>0.22405654291492699</v>
       </c>
       <c r="M221">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -14840,19 +14840,19 @@
         <v>6.4820000000000002</v>
       </c>
       <c r="C222">
-        <v>0.16274537277048201</v>
+        <v>0.163996236924487</v>
       </c>
       <c r="D222">
-        <v>257264.583021856</v>
+        <v>246525.976202388</v>
       </c>
       <c r="E222">
-        <v>207591.85043654399</v>
+        <v>198403.308265217</v>
       </c>
       <c r="F222">
         <v>0</v>
       </c>
       <c r="G222">
-        <v>6407.6973018648296</v>
+        <v>6415.3305968261402</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -14861,16 +14861,16 @@
         <v>0</v>
       </c>
       <c r="J222">
-        <v>43265.035283446698</v>
+        <v>41707.337340345002</v>
       </c>
       <c r="K222">
         <v>0</v>
       </c>
       <c r="L222">
-        <v>0.23468752926953201</v>
+        <v>0.22399965709437999</v>
       </c>
       <c r="M222">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -14881,19 +14881,19 @@
         <v>6.5334444444444397</v>
       </c>
       <c r="C223">
-        <v>0.16403700271310501</v>
+        <v>0.16529779436039499</v>
       </c>
       <c r="D223">
-        <v>261598.86653900999</v>
+        <v>250692.546304116</v>
       </c>
       <c r="E223">
-        <v>210691.62630816601</v>
+        <v>201365.68936436399</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223">
-        <v>6952.7331707092299</v>
+        <v>6954.8713034191096</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -14902,16 +14902,16 @@
         <v>0</v>
       </c>
       <c r="J223">
-        <v>43954.507060135598</v>
+        <v>42371.985636333098</v>
       </c>
       <c r="K223">
         <v>0</v>
       </c>
       <c r="L223">
-        <v>0.234634648605347</v>
+        <v>0.223943314775188</v>
       </c>
       <c r="M223">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -14922,19 +14922,19 @@
         <v>6.5848888888888801</v>
       </c>
       <c r="C224">
-        <v>0.165328632655727</v>
+        <v>0.166599351796304</v>
       </c>
       <c r="D224">
-        <v>265997.35688715498</v>
+        <v>254921.289883636</v>
       </c>
       <c r="E224">
-        <v>213812.93434861701</v>
+        <v>204348.645618112</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224">
-        <v>7534.9933319373204</v>
+        <v>7530.7561964752003</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -14943,16 +14943,16 @@
         <v>0</v>
       </c>
       <c r="J224">
-        <v>44649.429206600602</v>
+        <v>43041.888069048502</v>
       </c>
       <c r="K224">
         <v>0</v>
       </c>
       <c r="L224">
-        <v>0.234582270416407</v>
+        <v>0.22388750649258199</v>
       </c>
       <c r="M224">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -14963,19 +14963,19 @@
         <v>6.6363333333333303</v>
       </c>
       <c r="C225">
-        <v>0.16662026259835</v>
+        <v>0.16790090923221199</v>
       </c>
       <c r="D225">
-        <v>270461.90535538102</v>
+        <v>259213.979389824</v>
       </c>
       <c r="E225">
-        <v>216955.755556269</v>
+        <v>207352.15885401901</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
       <c r="G225">
-        <v>8156.3480762702502</v>
+        <v>8144.7758973138598</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -14984,16 +14984,16 @@
         <v>0</v>
       </c>
       <c r="J225">
-        <v>45349.801722841803</v>
+        <v>43717.044638490901</v>
       </c>
       <c r="K225">
         <v>0</v>
       </c>
       <c r="L225">
-        <v>0.23453038600798101</v>
+        <v>0.223832223019482</v>
       </c>
       <c r="M225">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -15004,19 +15004,19 @@
         <v>6.6877777777777698</v>
       </c>
       <c r="C226">
-        <v>0.167911892540973</v>
+        <v>0.169202466668121</v>
       </c>
       <c r="D226">
-        <v>274994.41663060302</v>
+        <v>263572.435694538</v>
       </c>
       <c r="E226">
-        <v>220120.07110206399</v>
+        <v>210376.21106470199</v>
       </c>
       <c r="F226">
         <v>0</v>
       </c>
       <c r="G226">
-        <v>8818.7209196795793</v>
+        <v>8798.7692851748197</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -15025,16 +15025,16 @@
         <v>0</v>
       </c>
       <c r="J226">
-        <v>46055.624608859303</v>
+        <v>44397.455344660601</v>
       </c>
       <c r="K226">
         <v>0</v>
       </c>
       <c r="L226">
-        <v>0.23447898690223201</v>
+        <v>0.223777455358729</v>
       </c>
       <c r="M226">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -15045,19 +15045,19 @@
         <v>6.73922222222222</v>
       </c>
       <c r="C227">
-        <v>0.16920352248359599</v>
+        <v>0.17050402410403001</v>
       </c>
       <c r="D227">
-        <v>279596.84770839999</v>
+        <v>267998.52719404898</v>
       </c>
       <c r="E227">
-        <v>223305.86232661401</v>
+        <v>213420.78440506401</v>
       </c>
       <c r="F227">
         <v>0</v>
       </c>
       <c r="G227">
-        <v>9524.08751713329</v>
+        <v>9494.6226014268905</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -15066,16 +15066,16 @@
         <v>0</v>
       </c>
       <c r="J227">
-        <v>46766.897864652899</v>
+        <v>45083.120187557397</v>
       </c>
       <c r="K227">
         <v>0</v>
       </c>
       <c r="L227">
-        <v>0.23442806483117601</v>
+        <v>0.22372319473563099</v>
       </c>
       <c r="M227">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -15086,19 +15086,19 @@
         <v>6.7906666666666604</v>
       </c>
       <c r="C228">
-        <v>0.17049515242621899</v>
+        <v>0.171805581539938</v>
       </c>
       <c r="D228">
-        <v>284271.20699876198</v>
+        <v>272494.16951124801</v>
       </c>
       <c r="E228">
-        <v>226513.11073737399</v>
+        <v>216485.86118959001</v>
       </c>
       <c r="F228">
         <v>0</v>
       </c>
       <c r="G228">
-        <v>10274.4747711657</v>
+        <v>10234.2691544761</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -15107,16 +15107,16 @@
         <v>0</v>
       </c>
       <c r="J228">
-        <v>47483.6214902227</v>
+        <v>45774.0391671814</v>
       </c>
       <c r="K228">
         <v>0</v>
       </c>
       <c r="L228">
-        <v>0.234377611729921</v>
+        <v>0.22366943259080399</v>
       </c>
       <c r="M228">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -15127,19 +15127,19 @@
         <v>6.8421111111111097</v>
       </c>
       <c r="C229">
-        <v>0.17178678236884201</v>
+        <v>0.17310713897584701</v>
       </c>
       <c r="D229">
-        <v>289019.55405971</v>
+        <v>277061.32622813701</v>
       </c>
       <c r="E229">
-        <v>229741.798005889</v>
+        <v>219571.423889711</v>
       </c>
       <c r="F229">
         <v>0</v>
       </c>
       <c r="G229">
-        <v>11071.9605682521</v>
+        <v>11019.690054893101</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -15148,16 +15148,16 @@
         <v>0</v>
       </c>
       <c r="J229">
-        <v>48205.7954855688</v>
+        <v>46470.212283532601</v>
       </c>
       <c r="K229">
         <v>0</v>
       </c>
       <c r="L229">
-        <v>0.23432761973017999</v>
+        <v>0.223616160573296</v>
       </c>
       <c r="M229">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -15168,19 +15168,19 @@
         <v>6.8935555555555501</v>
       </c>
       <c r="C230">
-        <v>0.17307841231146501</v>
+        <v>0.17440869641175599</v>
       </c>
       <c r="D230">
-        <v>293844.00039799901</v>
+        <v>281702.010953944</v>
       </c>
       <c r="E230">
-        <v>232991.905965096</v>
+        <v>222677.455131225</v>
       </c>
       <c r="F230">
         <v>0</v>
       </c>
       <c r="G230">
-        <v>11918.674582212499</v>
+        <v>11852.9162861075</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -15189,16 +15189,16 @@
         <v>0</v>
       </c>
       <c r="J230">
-        <v>48933.419850691003</v>
+        <v>47171.639536611001</v>
       </c>
       <c r="K230">
         <v>0</v>
       </c>
       <c r="L230">
-        <v>0.23427808115403401</v>
+        <v>0.22356337053398401</v>
       </c>
       <c r="M230">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -15209,19 +15209,19 @@
         <v>6.9450000000000003</v>
       </c>
       <c r="C231">
-        <v>0.174370042254088</v>
+        <v>0.17571025384766401</v>
       </c>
       <c r="D231">
-        <v>298746.711648305</v>
+        <v>286418.29076559498</v>
       </c>
       <c r="E231">
-        <v>236263.41660669801</v>
+        <v>225803.937691787</v>
       </c>
       <c r="F231">
         <v>0</v>
       </c>
       <c r="G231">
-        <v>12816.800456016999</v>
+        <v>12736.032147391201</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -15230,16 +15230,16 @@
         <v>0</v>
       </c>
       <c r="J231">
-        <v>49666.494585589397</v>
+        <v>47878.320926416498</v>
       </c>
       <c r="K231">
         <v>0</v>
       </c>
       <c r="L231">
-        <v>0.234228988507933</v>
+        <v>0.22351105451921799</v>
       </c>
       <c r="M231">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -15250,19 +15250,19 @@
         <v>6.9964444444444398</v>
       </c>
       <c r="C232">
-        <v>0.17566167219671</v>
+        <v>0.17701181128357299</v>
       </c>
       <c r="D232">
-        <v>303729.91116842499</v>
+        <v>291212.29067002202</v>
       </c>
       <c r="E232">
-        <v>239556.31207860101</v>
+        <v>228950.85449845201</v>
       </c>
       <c r="F232">
         <v>0</v>
       </c>
       <c r="G232">
-        <v>13768.579399559399</v>
+        <v>13671.179718621001</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -15271,16 +15271,16 @@
         <v>0</v>
       </c>
       <c r="J232">
-        <v>50405.019690264002</v>
+        <v>48590.256452949303</v>
       </c>
       <c r="K232">
         <v>0</v>
       </c>
       <c r="L232">
-        <v>0.234180334476943</v>
+        <v>0.223459204764724</v>
       </c>
       <c r="M232">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -15291,19 +15291,19 @@
         <v>7.0478888888888802</v>
       </c>
       <c r="C233">
-        <v>0.176953302139333</v>
+        <v>0.178313368719481</v>
       </c>
       <c r="D233">
-        <v>308795.88469423598</v>
+        <v>296086.19829721103</v>
       </c>
       <c r="E233">
-        <v>242870.57468240199</v>
+        <v>232118.18862527699</v>
       </c>
       <c r="F233">
         <v>0</v>
       </c>
       <c r="G233">
-        <v>14776.3148471186</v>
+        <v>14660.5635557244</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -15312,16 +15312,16 @@
         <v>0</v>
       </c>
       <c r="J233">
-        <v>51148.995164714797</v>
+        <v>49307.446116209103</v>
       </c>
       <c r="K233">
         <v>0</v>
       </c>
       <c r="L233">
-        <v>0.234132111919195</v>
+        <v>0.223407813689733</v>
       </c>
       <c r="M233">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -15332,19 +15332,19 @@
         <v>7.0993333333333304</v>
       </c>
       <c r="C234">
-        <v>0.17824493208195599</v>
+        <v>0.17961492615538999</v>
       </c>
       <c r="D234">
-        <v>313946.98524941801</v>
+        <v>301042.26763466297</v>
       </c>
       <c r="E234">
-        <v>246206.18687094701</v>
+        <v>235305.92329098599</v>
       </c>
       <c r="F234">
         <v>0</v>
       </c>
       <c r="G234">
-        <v>15842.3773695288</v>
+        <v>15706.454427480699</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -15353,16 +15353,16 @@
         <v>0</v>
       </c>
       <c r="J234">
-        <v>51898.421008941797</v>
+        <v>50029.889916196204</v>
       </c>
       <c r="K234">
         <v>0</v>
       </c>
       <c r="L234">
-        <v>0.234084313860565</v>
+        <v>0.22335687389133199</v>
       </c>
       <c r="M234">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -15373,19 +15373,19 @@
         <v>7.1507777777777699</v>
       </c>
       <c r="C235">
-        <v>0.17953656202457899</v>
+        <v>0.180916483591299</v>
       </c>
       <c r="D235">
-        <v>319185.63709710998</v>
+        <v>306082.82036593801</v>
       </c>
       <c r="E235">
-        <v>249563.13124593801</v>
+        <v>238514.04185667599</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
       <c r="G235">
-        <v>16969.208628226301</v>
+        <v>16811.190656350998</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -15394,16 +15394,16 @@
         <v>0</v>
       </c>
       <c r="J235">
-        <v>52653.297222945002</v>
+        <v>50757.587852910503</v>
       </c>
       <c r="K235">
         <v>0</v>
       </c>
       <c r="L235">
-        <v>0.23403693348953999</v>
+        <v>0.22330637813903201</v>
       </c>
       <c r="M235">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -15414,19 +15414,19 @@
         <v>7.2022222222222201</v>
       </c>
       <c r="C236">
-        <v>0.18082819196720201</v>
+        <v>0.18221804102720701</v>
       </c>
       <c r="D236">
-        <v>324514.33726196998</v>
+        <v>311210.243374563</v>
       </c>
       <c r="E236">
-        <v>252941.39055559601</v>
+        <v>241742.527823585</v>
       </c>
       <c r="F236">
         <v>0</v>
       </c>
       <c r="G236">
-        <v>18159.322899649502</v>
+        <v>17977.175624625499</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -15435,16 +15435,16 @@
         <v>0</v>
       </c>
       <c r="J236">
-        <v>53413.623806724398</v>
+        <v>51490.539926351899</v>
       </c>
       <c r="K236">
         <v>0</v>
       </c>
       <c r="L236">
-        <v>0.23398996415228299</v>
+        <v>0.22325631936954299</v>
       </c>
       <c r="M236">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -15455,19 +15455,19 @@
         <v>7.2536666666666596</v>
       </c>
       <c r="C237">
-        <v>0.18211982190982501</v>
+        <v>0.183519598463116</v>
       </c>
       <c r="D237">
-        <v>329935.653139134</v>
+        <v>316426.98128105799</v>
       </c>
       <c r="E237">
-        <v>256340.94769238</v>
+        <v>244991.36483091</v>
       </c>
       <c r="F237">
         <v>0</v>
       </c>
       <c r="G237">
-        <v>19415.304686473999</v>
+        <v>19206.870313627602</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -15476,16 +15476,16 @@
         <v>0</v>
       </c>
       <c r="J237">
-        <v>54179.400760279997</v>
+        <v>52228.746136520502</v>
       </c>
       <c r="K237">
         <v>0</v>
       </c>
       <c r="L237">
-        <v>0.233943399347882</v>
+        <v>0.22320669068173399</v>
       </c>
       <c r="M237">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -15496,19 +15496,19 @@
         <v>7.3051111111111098</v>
       </c>
       <c r="C238">
-        <v>0.183411451852448</v>
+        <v>0.18482115589902501</v>
       </c>
       <c r="D238">
-        <v>335452.21500455402</v>
+        <v>321735.52350315102</v>
       </c>
       <c r="E238">
-        <v>259761.78569075401</v>
+        <v>248260.53665367101</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
       <c r="G238">
-        <v>20739.801230187401</v>
+        <v>20502.780366063402</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -15517,16 +15517,16 @@
         <v>0</v>
       </c>
       <c r="J238">
-        <v>54950.628083611802</v>
+        <v>52972.206483416303</v>
       </c>
       <c r="K238">
         <v>0</v>
       </c>
       <c r="L238">
-        <v>0.23389723272377699</v>
+        <v>0.223157485331789</v>
       </c>
       <c r="M238">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -15537,19 +15537,19 @@
         <v>7.3565555555555502</v>
       </c>
       <c r="C239">
-        <v>0.184703081795071</v>
+        <v>0.18612271333493299</v>
       </c>
       <c r="D239">
-        <v>341066.702860196</v>
+        <v>327138.38621429901</v>
       </c>
       <c r="E239">
-        <v>263203.887725009</v>
+        <v>251550.027200624</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
       <c r="G239">
-        <v>22135.509358467902</v>
+        <v>21867.438046635802</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -15558,16 +15558,16 @@
         <v>0</v>
       </c>
       <c r="J239">
-        <v>55727.305776719702</v>
+        <v>53720.920967039303</v>
       </c>
       <c r="K239">
         <v>0</v>
       </c>
       <c r="L239">
-        <v>0.233851458071347</v>
+        <v>0.223108696728536</v>
       </c>
       <c r="M239">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -15578,19 +15578,19 @@
         <v>7.4080000000000004</v>
       </c>
       <c r="C240">
-        <v>0.185994711737693</v>
+        <v>0.18742427077084201</v>
       </c>
       <c r="D240">
-        <v>346781.82793739502</v>
+        <v>332638.090612525</v>
       </c>
       <c r="E240">
-        <v>266667.237107124</v>
+        <v>254859.82051222501</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
       <c r="G240">
-        <v>23605.156990666699</v>
+        <v>23303.380512910899</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -15599,16 +15599,16 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <v>56509.433839603902</v>
+        <v>54474.889587389502</v>
       </c>
       <c r="K240">
         <v>0</v>
       </c>
       <c r="L240">
-        <v>0.233806069321668</v>
+        <v>0.223060318428945</v>
       </c>
       <c r="M240">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -15619,19 +15619,19 @@
         <v>7.4594444444444399</v>
       </c>
       <c r="C241">
-        <v>0.18728634168031599</v>
+        <v>0.18872582820675099</v>
       </c>
       <c r="D241">
-        <v>352600.31023427099</v>
+        <v>338237.13994646899</v>
       </c>
       <c r="E241">
-        <v>270151.81728468998</v>
+        <v>258189.900758629</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
       <c r="G241">
-        <v>25151.480677316798</v>
+        <v>24813.126843373699</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -15640,16 +15640,16 @@
         <v>0</v>
       </c>
       <c r="J241">
-        <v>57297.012272264299</v>
+        <v>55234.112344466797</v>
       </c>
       <c r="K241">
         <v>0</v>
       </c>
       <c r="L241">
-        <v>0.23376106054141799</v>
+        <v>0.223012344133797</v>
       </c>
       <c r="M241">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -15660,19 +15660,19 @@
         <v>7.5108888888888803</v>
       </c>
       <c r="C242">
-        <v>0.18857797162293899</v>
+        <v>0.190027385642659</v>
       </c>
       <c r="D242">
-        <v>358524.85452633299</v>
+        <v>343937.99860486097</v>
       </c>
       <c r="E242">
-        <v>273657.61183886201</v>
+        <v>261540.252237746</v>
       </c>
       <c r="F242">
         <v>0</v>
       </c>
       <c r="G242">
-        <v>26777.201612769899</v>
+        <v>26399.157128843199</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -15681,16 +15681,16 @@
         <v>0</v>
       </c>
       <c r="J242">
-        <v>58090.041074700901</v>
+        <v>55998.589238271299</v>
       </c>
       <c r="K242">
         <v>0</v>
       </c>
       <c r="L242">
-        <v>0.23371642592893099</v>
+        <v>0.22296476768349799</v>
       </c>
       <c r="M242">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -15701,19 +15701,19 @@
         <v>7.5623333333333296</v>
       </c>
       <c r="C243">
-        <v>0.18986960156556201</v>
+        <v>0.19132894307856799</v>
       </c>
       <c r="D243">
-        <v>364558.12818887603</v>
+        <v>349743.07709228399</v>
       </c>
       <c r="E243">
-        <v>277184.60448236897</v>
+        <v>264910.85937332798</v>
       </c>
       <c r="F243">
         <v>0</v>
       </c>
       <c r="G243">
-        <v>28485.003459593601</v>
+        <v>28063.897450152599</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -15722,16 +15722,16 @@
         <v>0</v>
       </c>
       <c r="J243">
-        <v>58888.520246913598</v>
+        <v>56768.320268803</v>
       </c>
       <c r="K243">
         <v>0</v>
       </c>
       <c r="L243">
-        <v>0.23367215981039599</v>
+        <v>0.22291758305404799</v>
       </c>
       <c r="M243">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -15742,19 +15742,19 @@
         <v>7.61377777777777</v>
       </c>
       <c r="C244">
-        <v>0.19116123150818501</v>
+        <v>0.192630500514476</v>
       </c>
       <c r="D244">
-        <v>370702.74473617697</v>
+        <v>355654.726755507</v>
       </c>
       <c r="E244">
-        <v>280732.77905756101</v>
+        <v>268301.70671310602</v>
       </c>
       <c r="F244">
         <v>0</v>
       </c>
       <c r="G244">
-        <v>30277.515889713199</v>
+        <v>29809.714606339501</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -15763,16 +15763,16 @@
         <v>0</v>
       </c>
       <c r="J244">
-        <v>59692.449788902602</v>
+        <v>57543.305436061899</v>
       </c>
       <c r="K244">
         <v>0</v>
       </c>
       <c r="L244">
-        <v>0.233628256636182</v>
+        <v>0.22287078435315699</v>
       </c>
       <c r="M244">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -15783,19 +15783,19 @@
         <v>7.6652222222222202</v>
       </c>
       <c r="C245">
-        <v>0.192452861450808</v>
+        <v>0.19393205795038501</v>
       </c>
       <c r="D245">
-        <v>376961.25707753701</v>
+        <v>361675.24761445302</v>
       </c>
       <c r="E245">
-        <v>284302.11953449901</v>
+        <v>271712.77892695798</v>
       </c>
       <c r="F245">
         <v>0</v>
       </c>
       <c r="G245">
-        <v>32157.307842370199</v>
+        <v>31638.923947446801</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -15804,16 +15804,16 @@
         <v>0</v>
       </c>
       <c r="J245">
-        <v>60501.829700667797</v>
+        <v>58323.544740047902</v>
       </c>
       <c r="K245">
         <v>0</v>
       </c>
       <c r="L245">
-        <v>0.23358471097730399</v>
+        <v>0.22282436581649001</v>
       </c>
       <c r="M245">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -15824,19 +15824,19 @@
         <v>7.7166666666666597</v>
       </c>
       <c r="C246">
-        <v>0.193744491393431</v>
+        <v>0.195233615386294</v>
       </c>
       <c r="D246">
-        <v>383336.164030732</v>
+        <v>367806.911586662</v>
       </c>
       <c r="E246">
-        <v>287892.61000908801</v>
+        <v>275144.06080512801</v>
       </c>
       <c r="F246">
         <v>0</v>
       </c>
       <c r="G246">
-        <v>34126.894039434897</v>
+        <v>33553.812600772697</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -15845,16 +15845,16 @@
         <v>0</v>
       </c>
       <c r="J246">
-        <v>61316.659982209101</v>
+        <v>59109.038180761097</v>
       </c>
       <c r="K246">
         <v>0</v>
       </c>
       <c r="L246">
-        <v>0.233541517522003</v>
+        <v>0.222778321804049</v>
       </c>
       <c r="M246">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -15865,19 +15865,19 @@
         <v>7.7681111111111099</v>
       </c>
       <c r="C247">
-        <v>0.195036121336054</v>
+        <v>0.19653517282220201</v>
       </c>
       <c r="D247">
-        <v>389829.93260700902</v>
+        <v>374052.001848655</v>
       </c>
       <c r="E247">
-        <v>291504.23470124399</v>
+        <v>278595.53725647199</v>
       </c>
       <c r="F247">
         <v>0</v>
       </c>
       <c r="G247">
-        <v>36188.757272238501</v>
+        <v>35556.678833981197</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -15886,16 +15886,16 @@
         <v>0</v>
       </c>
       <c r="J247">
-        <v>62136.940633526698</v>
+        <v>59899.785758201499</v>
       </c>
       <c r="K247">
         <v>0</v>
       </c>
       <c r="L247">
-        <v>0.23349867107245001</v>
+        <v>0.22273264679667601</v>
       </c>
       <c r="M247">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -15906,19 +15906,19 @@
         <v>7.8195555555555503</v>
       </c>
       <c r="C248">
-        <v>0.19632775127867599</v>
+        <v>0.19783673025811099</v>
       </c>
       <c r="D248">
-        <v>396445.03705477901</v>
+        <v>380412.867200604</v>
       </c>
       <c r="E248">
-        <v>295136.97795310803</v>
+        <v>282067.19330674701</v>
       </c>
       <c r="F248">
         <v>0</v>
       </c>
       <c r="G248">
-        <v>38345.387447050503</v>
+        <v>37649.886421487703</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -15927,16 +15927,16 @@
         <v>0</v>
       </c>
       <c r="J248">
-        <v>62962.671654620397</v>
+        <v>60695.787472369098</v>
       </c>
       <c r="K248">
         <v>0</v>
       </c>
       <c r="L248">
-        <v>0.23345616654156501</v>
+        <v>0.22268733539268201</v>
       </c>
       <c r="M248">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -15947,19 +15947,19 @@
         <v>7.8710000000000004</v>
       </c>
       <c r="C249">
-        <v>0.19761938122129899</v>
+        <v>0.19913828769402001</v>
       </c>
       <c r="D249">
-        <v>403184.01376241999</v>
+        <v>386891.98829813697</v>
       </c>
       <c r="E249">
-        <v>298790.82422729197</v>
+        <v>285559.014096934</v>
       </c>
       <c r="F249">
         <v>0</v>
       </c>
       <c r="G249">
-        <v>40599.336489637397</v>
+        <v>39835.930877939303</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -15968,16 +15968,16 @@
         <v>0</v>
       </c>
       <c r="J249">
-        <v>63793.853045490403</v>
+        <v>61497.043323263897</v>
       </c>
       <c r="K249">
         <v>0</v>
       </c>
       <c r="L249">
-        <v>0.233413998949939</v>
+        <v>0.22264238230459199</v>
       </c>
       <c r="M249">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -15988,19 +15988,19 @@
         <v>7.92244444444444</v>
       </c>
       <c r="C250">
-        <v>0.19891101116392201</v>
+        <v>0.20043984512992799</v>
       </c>
       <c r="D250">
-        <v>410049.52907540998</v>
+        <v>393492.05072430603</v>
       </c>
       <c r="E250">
-        <v>302465.75810516003</v>
+        <v>289070.984881596</v>
       </c>
       <c r="F250">
         <v>0</v>
       </c>
       <c r="G250">
-        <v>42953.286164113</v>
+        <v>42117.512531824097</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -16009,16 +16009,16 @@
         <v>0</v>
       </c>
       <c r="J250">
-        <v>64630.484806136497</v>
+        <v>62303.5533108858</v>
       </c>
       <c r="K250">
         <v>0</v>
       </c>
       <c r="L250">
-        <v>0.23337216342286801</v>
+        <v>0.22259778235599101</v>
       </c>
       <c r="M250">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -16029,19 +16029,19 @@
         <v>7.9738888888888804</v>
       </c>
       <c r="C251">
-        <v>0.20020264110654501</v>
+        <v>0.201741402565837</v>
       </c>
       <c r="D251">
-        <v>417044.455115825</v>
+        <v>400216.018332201</v>
       </c>
       <c r="E251">
-        <v>306161.76428514998</v>
+        <v>292603.091027271</v>
       </c>
       <c r="F251">
         <v>0</v>
       </c>
       <c r="G251">
-        <v>45410.123894115401</v>
+        <v>44497.609869694701</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -16050,16 +16050,16 @@
         <v>0</v>
       </c>
       <c r="J251">
-        <v>65472.566936558796</v>
+        <v>63115.317435234901</v>
       </c>
       <c r="K251">
         <v>0</v>
       </c>
       <c r="L251">
-        <v>0.233330655187486</v>
+        <v>0.222553530478491</v>
       </c>
       <c r="M251">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -16070,19 +16070,19 @@
         <v>8.0253333333333305</v>
       </c>
       <c r="C252">
-        <v>0.20149427104916801</v>
+        <v>0.20304296000174499</v>
       </c>
       <c r="D252">
-        <v>424171.94704365003</v>
+        <v>407067.199296412</v>
       </c>
       <c r="E252">
-        <v>309878.827581127</v>
+        <v>296155.31801089802</v>
       </c>
       <c r="F252">
         <v>0</v>
       </c>
       <c r="G252">
-        <v>47973.020025765203</v>
+        <v>46979.545589202797</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -16091,16 +16091,16 @@
         <v>0</v>
       </c>
       <c r="J252">
-        <v>66320.099436757402</v>
+        <v>63932.335696311202</v>
       </c>
       <c r="K252">
         <v>0</v>
       </c>
       <c r="L252">
-        <v>0.233289469569988</v>
+        <v>0.22250962170879099</v>
       </c>
       <c r="M252">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -16111,19 +16111,19 @@
         <v>8.0767777777777692</v>
       </c>
       <c r="C253">
-        <v>0.202785900991791</v>
+        <v>0.204344517437654</v>
       </c>
       <c r="D253">
-        <v>431435.51408040902</v>
+        <v>414049.29700835899</v>
       </c>
       <c r="E253">
-        <v>313616.93292077002</v>
+        <v>299727.65141827002</v>
       </c>
       <c r="F253">
         <v>0</v>
       </c>
       <c r="G253">
-        <v>50645.498852906399</v>
+        <v>49567.037495973796</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -16132,16 +16132,16 @@
         <v>0</v>
       </c>
       <c r="J253">
-        <v>67173.082306732103</v>
+        <v>64754.608094114701</v>
       </c>
       <c r="K253">
         <v>0</v>
       </c>
       <c r="L253">
-        <v>0.233248601992956</v>
+        <v>0.22246605118583501</v>
       </c>
       <c r="M253">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -16152,19 +16152,19 @@
         <v>8.1282222222222202</v>
       </c>
       <c r="C254">
-        <v>0.204077530934414</v>
+        <v>0.20564607487356301</v>
       </c>
       <c r="D254">
-        <v>438839.07617826201</v>
+        <v>421166.438393922</v>
       </c>
       <c r="E254">
-        <v>317376.06534399203</v>
+        <v>303320.07694253098</v>
       </c>
       <c r="F254">
         <v>0</v>
       </c>
       <c r="G254">
-        <v>53431.4952877877</v>
+        <v>52264.226822745703</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -16173,16 +16173,16 @@
         <v>0</v>
       </c>
       <c r="J254">
-        <v>68031.515546483104</v>
+        <v>65582.134628645406</v>
       </c>
       <c r="K254">
         <v>0</v>
       </c>
       <c r="L254">
-        <v>0.23320804797276701</v>
+        <v>0.22242281414807</v>
       </c>
       <c r="M254">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -16193,19 +16193,19 @@
         <v>8.1796666666666606</v>
       </c>
       <c r="C255">
-        <v>0.20536916087703699</v>
+        <v>0.206947632309471</v>
       </c>
       <c r="D255">
-        <v>446386.998534735</v>
+        <v>428423.17339308403</v>
       </c>
       <c r="E255">
-        <v>321156.21000139002</v>
+        <v>306932.580382685</v>
       </c>
       <c r="F255">
         <v>0</v>
       </c>
       <c r="G255">
-        <v>56335.389377334403</v>
+        <v>55075.6777104953</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -16214,16 +16214,16 @@
         <v>0</v>
       </c>
       <c r="J255">
-        <v>68895.3991560102</v>
+        <v>66414.915299903194</v>
       </c>
       <c r="K255">
         <v>0</v>
       </c>
       <c r="L255">
-        <v>0.23316780311708901</v>
+        <v>0.22237990593079199</v>
       </c>
       <c r="M255">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -16234,19 +16234,19 @@
         <v>8.2311111111111099</v>
       </c>
       <c r="C256">
-        <v>0.20666079081965899</v>
+        <v>0.20824918974538001</v>
       </c>
       <c r="D256">
-        <v>454084.097211026</v>
+        <v>435824.44111535902</v>
       </c>
       <c r="E256">
-        <v>324957.35215273401</v>
+        <v>310565.14764215401</v>
       </c>
       <c r="F256">
         <v>0</v>
       </c>
       <c r="G256">
-        <v>59362.011922977603</v>
+        <v>58006.343365316199</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -16255,16 +16255,16 @@
         <v>0</v>
       </c>
       <c r="J256">
-        <v>69764.733135313494</v>
+        <v>67252.950107888202</v>
       </c>
       <c r="K256">
         <v>0</v>
       </c>
       <c r="L256">
-        <v>0.23312786312245901</v>
+        <v>0.222337321963574</v>
       </c>
       <c r="M256">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -16275,19 +16275,19 @@
         <v>8.2825555555555503</v>
       </c>
       <c r="C257">
-        <v>0.20795242076228199</v>
+        <v>0.20955074718128899</v>
       </c>
       <c r="D257">
-        <v>461935.61081785097</v>
+        <v>443375.50041057402</v>
       </c>
       <c r="E257">
-        <v>328779.47716547397</v>
+        <v>314217.76472735201</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257">
-        <v>62516.616167983797</v>
+        <v>61061.496630622001</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -16296,16 +16296,16 @@
         <v>0</v>
       </c>
       <c r="J257">
-        <v>70639.517484393</v>
+        <v>68096.239052600402</v>
       </c>
       <c r="K257">
         <v>0</v>
       </c>
       <c r="L257">
-        <v>0.233088223771938</v>
+        <v>0.22229505776778599</v>
       </c>
       <c r="M257">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -16316,19 +16316,19 @@
         <v>8.3339999999999996</v>
       </c>
       <c r="C258">
-        <v>0.20924405070490501</v>
+        <v>0.21085230461719701</v>
       </c>
       <c r="D258">
-        <v>469947.13543390902</v>
+        <v>451081.82508222602</v>
       </c>
       <c r="E258">
-        <v>332622.57051328401</v>
+        <v>317890.417746288</v>
       </c>
       <c r="F258">
         <v>0</v>
       </c>
       <c r="G258">
-        <v>65804.812717375695</v>
+        <v>64246.6252018987</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -16337,16 +16337,16 @@
         <v>0</v>
       </c>
       <c r="J258">
-        <v>71519.752203248703</v>
+        <v>68944.782134039793</v>
       </c>
       <c r="K258">
         <v>0</v>
       </c>
       <c r="L258">
-        <v>0.23304888093284601</v>
+        <v>0.22225310895419301</v>
       </c>
       <c r="M258">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -16357,19 +16357,19 @@
         <v>8.38544444444444</v>
       </c>
       <c r="C259">
-        <v>0.21053568064752801</v>
+        <v>0.21215386205310599</v>
       </c>
       <c r="D259">
-        <v>478124.52243098099</v>
+        <v>458948.96652764501</v>
       </c>
       <c r="E259">
-        <v>336486.61777463497</v>
+        <v>321583.09290720499</v>
       </c>
       <c r="F259">
         <v>0</v>
       </c>
       <c r="G259">
-        <v>69232.467364465498</v>
+        <v>67567.2942682336</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -16378,16 +16378,16 @@
         <v>0</v>
       </c>
       <c r="J259">
-        <v>72405.437291880604</v>
+        <v>69798.579352206405</v>
       </c>
       <c r="K259">
         <v>0</v>
       </c>
       <c r="L259">
-        <v>0.233009830554567</v>
+        <v>0.22221147122062401</v>
       </c>
       <c r="M259">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -16398,19 +16398,19 @@
         <v>8.4368888888888804</v>
       </c>
       <c r="C260">
-        <v>0.211827310590151</v>
+        <v>0.213455419489014</v>
       </c>
       <c r="D260">
-        <v>486473.74150122202</v>
+        <v>466982.38904138899</v>
       </c>
       <c r="E260">
-        <v>340371.60463139298</v>
+        <v>325295.77651723701</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
       <c r="G260">
-        <v>72805.564119539195</v>
+        <v>71028.981817051594</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -16419,16 +16419,16 @@
         <v>0</v>
       </c>
       <c r="J260">
-        <v>73296.572750288702</v>
+        <v>70657.630707100107</v>
       </c>
       <c r="K260">
         <v>0</v>
       </c>
       <c r="L260">
-        <v>0.232971068666426</v>
+        <v>0.22217014034972299</v>
       </c>
       <c r="M260">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -16439,19 +16439,19 @@
         <v>8.4883333333333297</v>
       </c>
       <c r="C261">
-        <v>0.213118940532774</v>
+        <v>0.21475697692492299</v>
       </c>
       <c r="D261">
-        <v>495000.71373558597</v>
+        <v>475187.28522170999</v>
       </c>
       <c r="E261">
-        <v>344277.51686744601</v>
+        <v>329028.45498109702</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
       <c r="G261">
-        <v>76530.038289666496</v>
+        <v>74636.894041892097</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -16460,16 +16460,16 @@
         <v>0</v>
       </c>
       <c r="J261">
-        <v>74193.158578472998</v>
+        <v>71521.936198721</v>
       </c>
       <c r="K261">
         <v>0</v>
       </c>
       <c r="L261">
-        <v>0.23293259137562999</v>
+        <v>0.22212911220677301</v>
       </c>
       <c r="M261">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -16480,19 +16480,19 @@
         <v>8.5397777777777701</v>
       </c>
       <c r="C262">
-        <v>0.21441057047539699</v>
+        <v>0.216058534360832</v>
       </c>
       <c r="D262">
-        <v>503711.121935106</v>
+        <v>483568.380762983</v>
       </c>
       <c r="E262">
-        <v>348204.34036735602</v>
+        <v>332781.11479978298</v>
       </c>
       <c r="F262">
         <v>0</v>
       </c>
       <c r="G262">
-        <v>80411.5867913158</v>
+        <v>78395.770136130101</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -16501,16 +16501,16 @@
         <v>0</v>
       </c>
       <c r="J262">
-        <v>75095.194776433593</v>
+        <v>72391.495827069099</v>
       </c>
       <c r="K262">
         <v>0</v>
       </c>
       <c r="L262">
-        <v>0.23289439486527999</v>
+        <v>0.222088382737578</v>
       </c>
       <c r="M262">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -16521,19 +16521,19 @@
         <v>8.5912222222222194</v>
       </c>
       <c r="C263">
-        <v>0.21570220041801999</v>
+        <v>0.21736009179674001</v>
       </c>
       <c r="D263">
-        <v>512610.20732851903</v>
+        <v>492129.73931581603</v>
       </c>
       <c r="E263">
-        <v>352152.061115038</v>
+        <v>336553.74256932398</v>
       </c>
       <c r="F263">
         <v>0</v>
       </c>
       <c r="G263">
-        <v>84455.464869310599</v>
+        <v>82309.687154348401</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -16542,16 +16542,16 @@
         <v>0</v>
       </c>
       <c r="J263">
-        <v>76002.681344170298</v>
+        <v>73266.309592144404</v>
       </c>
       <c r="K263">
         <v>0</v>
       </c>
       <c r="L263">
-        <v>0.23285647539244</v>
+        <v>0.22204794796642299</v>
       </c>
       <c r="M263">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -16562,19 +16562,19 @@
         <v>8.6426666666666598</v>
       </c>
       <c r="C264">
-        <v>0.21699383036064199</v>
+        <v>0.218661649232649</v>
       </c>
       <c r="D264">
-        <v>521702.56342953898</v>
+        <v>500874.57898597402</v>
       </c>
       <c r="E264">
-        <v>356120.66519246303</v>
+        <v>340346.32497952902</v>
       </c>
       <c r="F264">
         <v>0</v>
       </c>
       <c r="G264">
-        <v>88666.279955392805</v>
+        <v>86381.876512498697</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -16583,16 +16583,16 @@
         <v>0</v>
       </c>
       <c r="J264">
-        <v>76915.618281683099</v>
+        <v>74146.377493946798</v>
       </c>
       <c r="K264">
         <v>0</v>
       </c>
       <c r="L264">
-        <v>0.23281882928626901</v>
+        <v>0.22200780399409101</v>
       </c>
       <c r="M264">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -16603,19 +16603,19 @@
         <v>8.6941111111111091</v>
       </c>
       <c r="C265">
-        <v>0.21828546030326501</v>
+        <v>0.21996320666855801</v>
       </c>
       <c r="D265">
-        <v>530991.93882419402</v>
+        <v>509805.11236924899</v>
       </c>
       <c r="E265">
-        <v>360110.138778391</v>
+        <v>344158.84881278098</v>
       </c>
       <c r="F265">
         <v>0</v>
       </c>
       <c r="G265">
-        <v>93047.794456831005</v>
+        <v>90614.564023992396</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -16624,16 +16624,16 @@
         <v>0</v>
       </c>
       <c r="J265">
-        <v>77834.005588972199</v>
+        <v>75031.699532476399</v>
       </c>
       <c r="K265">
         <v>0</v>
       </c>
       <c r="L265">
-        <v>0.232781452946213</v>
+        <v>0.22196794699594599</v>
       </c>
       <c r="M265">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
@@ -16644,19 +16644,19 @@
         <v>8.7455555555555495</v>
       </c>
       <c r="C266">
-        <v>0.21957709024588801</v>
+        <v>0.22126476410446599</v>
       </c>
       <c r="D266">
-        <v>540481.06117542402</v>
+        <v>518922.42173532897</v>
       </c>
       <c r="E266">
-        <v>364120.468147117</v>
+        <v>347991.30094283703</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
       <c r="G266">
-        <v>97602.749762268402</v>
+        <v>95008.845084758606</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -16665,16 +16665,16 @@
         <v>0</v>
       </c>
       <c r="J266">
-        <v>78757.843266037497</v>
+        <v>75922.275707733206</v>
       </c>
       <c r="K266">
         <v>0</v>
       </c>
       <c r="L266">
-        <v>0.232744342840248</v>
+        <v>0.22192837322007</v>
       </c>
       <c r="M266">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -16685,19 +16685,19 @@
         <v>8.7970000000000006</v>
       </c>
       <c r="C267">
-        <v>0.220868720188511</v>
+        <v>0.22256632154037501</v>
       </c>
       <c r="D267">
-        <v>550171.49461837695</v>
+        <v>528226.380042859</v>
       </c>
       <c r="E267">
-        <v>368151.63966725202</v>
+        <v>351843.66833366</v>
       </c>
       <c r="F267">
         <v>0</v>
       </c>
       <c r="G267">
-        <v>102332.72363824501</v>
+        <v>99564.605689482094</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -16706,16 +16706,16 @@
         <v>0</v>
       </c>
       <c r="J267">
-        <v>79687.131312879006</v>
+        <v>76818.106019717205</v>
       </c>
       <c r="K267">
         <v>0</v>
       </c>
       <c r="L267">
-        <v>0.23270749550317699</v>
+        <v>0.22188907898546201</v>
       </c>
       <c r="M267">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -16726,19 +16726,19 @@
         <v>8.8484444444444392</v>
       </c>
       <c r="C268">
-        <v>0.222160350131134</v>
+        <v>0.22386787897628299</v>
       </c>
       <c r="D268">
-        <v>560063.54195427196</v>
+        <v>537715.62687268096</v>
       </c>
       <c r="E268">
-        <v>372203.63980051799</v>
+        <v>355715.938038269</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
       <c r="G268">
-        <v>107238.032424256</v>
+        <v>104280.498365983</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -16747,16 +16747,16 @@
         <v>0</v>
       </c>
       <c r="J268">
-        <v>80621.869729496699</v>
+        <v>77719.190468428395</v>
       </c>
       <c r="K268">
         <v>0</v>
       </c>
       <c r="L268">
-        <v>0.23267090753498901</v>
+        <v>0.22185006068029001</v>
       </c>
       <c r="M268">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -16767,19 +16767,19 @@
         <v>8.8998888888888903</v>
       </c>
       <c r="C269">
-        <v>0.223451980073757</v>
+        <v>0.225169436412192</v>
       </c>
       <c r="D269">
-        <v>570156.20160830498</v>
+        <v>547387.606120963</v>
       </c>
       <c r="E269">
-        <v>376276.45510057203</v>
+        <v>359608.09719761199</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
       <c r="G269">
-        <v>112317.687991842</v>
+        <v>109153.979869483</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -16788,16 +16788,16 @@
         <v>0</v>
       </c>
       <c r="J269">
-        <v>81562.058515890501</v>
+        <v>78625.529053866703</v>
       </c>
       <c r="K269">
         <v>0</v>
       </c>
       <c r="L269">
-        <v>0.23263457559925199</v>
+        <v>0.221811314760195</v>
       </c>
       <c r="M269">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -16808,19 +16808,19 @@
         <v>8.9513333333333307</v>
       </c>
       <c r="C270">
-        <v>0.22474361001637999</v>
+        <v>0.22647099384810099</v>
       </c>
       <c r="D270">
-        <v>580447.18720162194</v>
+        <v>557238.66945927101</v>
       </c>
       <c r="E270">
-        <v>380370.072211847</v>
+        <v>363520.13303945801</v>
       </c>
       <c r="F270">
         <v>0</v>
       </c>
       <c r="G270">
-        <v>117569.41731771499</v>
+        <v>114181.41464377999</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -16829,16 +16829,16 @@
         <v>0</v>
       </c>
       <c r="J270">
-        <v>82507.697672060604</v>
+        <v>79537.121776032203</v>
       </c>
       <c r="K270">
         <v>0</v>
       </c>
       <c r="L270">
-        <v>0.23259849642156899</v>
+        <v>0.221772837746645</v>
       </c>
       <c r="M270">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -16849,19 +16849,19 @@
         <v>9.0027777777777693</v>
       </c>
       <c r="C271">
-        <v>0.22603523995900199</v>
+        <v>0.227772551284009</v>
       </c>
       <c r="D271">
-        <v>590933.01484494505</v>
+        <v>567264.24626149097</v>
       </c>
       <c r="E271">
-        <v>384484.47786841501</v>
+        <v>367452.03287731198</v>
       </c>
       <c r="F271">
         <v>0</v>
       </c>
       <c r="G271">
-        <v>122989.74977852299</v>
+        <v>119358.24474925399</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -16870,16 +16870,16 @@
         <v>0</v>
       </c>
       <c r="J271">
-        <v>83458.787198006903</v>
+        <v>80453.968634924895</v>
       </c>
       <c r="K271">
         <v>0</v>
       </c>
       <c r="L271">
-        <v>0.232562666788071</v>
+        <v>0.22173462622534801</v>
       </c>
       <c r="M271">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -16890,19 +16890,19 @@
         <v>9.0542222222222204</v>
       </c>
       <c r="C272">
-        <v>0.22732686990162501</v>
+        <v>0.22907410871991801</v>
       </c>
       <c r="D272">
-        <v>601609.15999316005</v>
+        <v>577459.07709506899</v>
       </c>
       <c r="E272">
-        <v>388619.65889287298</v>
+        <v>371403.78410934401</v>
       </c>
       <c r="F272">
         <v>0</v>
       </c>
       <c r="G272">
-        <v>128574.174006557</v>
+        <v>124679.22335518</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -16911,16 +16911,16 @@
         <v>0</v>
       </c>
       <c r="J272">
-        <v>84415.327093729298</v>
+        <v>81376.069630544793</v>
       </c>
       <c r="K272">
         <v>0</v>
       </c>
       <c r="L272">
-        <v>0.23252708354395599</v>
+        <v>0.22169667684469399</v>
       </c>
       <c r="M272">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -16931,19 +16931,19 @@
         <v>9.1056666666666608</v>
       </c>
       <c r="C273">
-        <v>0.22861849984424801</v>
+        <v>0.230375666155827</v>
       </c>
       <c r="D273">
-        <v>612470.282067294</v>
+        <v>587817.50420681201</v>
       </c>
       <c r="E273">
-        <v>392775.602195249</v>
+        <v>375375.37421734701</v>
       </c>
       <c r="F273">
         <v>0</v>
       </c>
       <c r="G273">
-        <v>134317.36251281601</v>
+        <v>130138.705226573</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -16952,16 +16952,16 @@
         <v>0</v>
       </c>
       <c r="J273">
-        <v>85377.317359228007</v>
+        <v>82303.424762891795</v>
       </c>
       <c r="K273">
         <v>0</v>
       </c>
       <c r="L273">
-        <v>0.232491743592078</v>
+        <v>0.22165898631426501</v>
       </c>
       <c r="M273">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -16972,19 +16972,19 @@
         <v>9.1571111111111101</v>
       </c>
       <c r="C274">
-        <v>0.229910129786871</v>
+        <v>0.23167722359173501</v>
       </c>
       <c r="D274">
-        <v>623510.51127102505</v>
+        <v>598333.80896796798</v>
       </c>
       <c r="E274">
-        <v>396952.29477192101</v>
+        <v>379366.79076570203</v>
       </c>
       <c r="F274">
         <v>0</v>
       </c>
       <c r="G274">
-        <v>140213.45850460001</v>
+        <v>135730.98417029899</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -16993,16 +16993,16 @@
         <v>0</v>
       </c>
       <c r="J274">
-        <v>86344.757994502797</v>
+        <v>83236.034031966105</v>
       </c>
       <c r="K274">
         <v>0</v>
       </c>
       <c r="L274">
-        <v>0.232456643891571</v>
+        <v>0.22162155140336701</v>
       </c>
       <c r="M274">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -17013,19 +17013,19 @@
         <v>9.2085555555555505</v>
       </c>
       <c r="C275">
-        <v>0.231201759729494</v>
+        <v>0.23297878102764399</v>
       </c>
       <c r="D275">
-        <v>634723.78836451599</v>
+        <v>609002.583256235</v>
       </c>
       <c r="E275">
-        <v>401149.72370456799</v>
+        <v>383378.021400375</v>
       </c>
       <c r="F275">
         <v>0</v>
       </c>
       <c r="G275">
-        <v>146256.41566039401</v>
+        <v>141450.664418092</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -17034,16 +17034,16 @@
         <v>0</v>
       </c>
       <c r="J275">
-        <v>87317.648999553901</v>
+        <v>84173.897437767504</v>
       </c>
       <c r="K275">
         <v>0</v>
       </c>
       <c r="L275">
-        <v>0.23242178145651199</v>
+        <v>0.22158436893962499</v>
       </c>
       <c r="M275">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -17054,19 +17054,19 @@
         <v>9.26</v>
       </c>
       <c r="C276">
-        <v>0.232493389672117</v>
+        <v>0.23428033846355301</v>
       </c>
       <c r="D276">
-        <v>646104.24488919496</v>
+        <v>619819.11949787103</v>
       </c>
       <c r="E276">
-        <v>405367.87615912501</v>
+        <v>387409.05384791701</v>
       </c>
       <c r="F276">
         <v>0</v>
       </c>
       <c r="G276">
-        <v>152440.37835568801</v>
+        <v>147293.05066965701</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -17075,16 +17075,16 @@
         <v>0</v>
       </c>
       <c r="J276">
-        <v>88295.990374381203</v>
+        <v>85117.014980296095</v>
       </c>
       <c r="K276">
         <v>0</v>
       </c>
       <c r="L276">
-        <v>0.232387153354632</v>
+        <v>0.221547435807604</v>
       </c>
       <c r="M276">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -17095,19 +17095,19 @@
         <v>9.3114444444444402</v>
       </c>
       <c r="C277">
-        <v>0.23378501961473999</v>
+        <v>0.23558189589946099</v>
       </c>
       <c r="D277">
-        <v>657646.60873224004</v>
+        <v>630779.80277120403</v>
       </c>
       <c r="E277">
-        <v>409606.73938476999</v>
+        <v>391459.875914492</v>
       </c>
       <c r="F277">
         <v>0</v>
       </c>
       <c r="G277">
-        <v>158760.087228485</v>
+        <v>153254.54019716001</v>
       </c>
       <c r="H277">
         <v>0</v>
@@ -17116,16 +17116,16 @@
         <v>0</v>
       </c>
       <c r="J277">
-        <v>89279.7821189846</v>
+        <v>86065.386659551805</v>
       </c>
       <c r="K277">
         <v>0</v>
       </c>
       <c r="L277">
-        <v>0.23235275670605399</v>
+        <v>0.22151074894747899</v>
       </c>
       <c r="M277">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -17136,19 +17136,19 @@
         <v>9.3628888888888895</v>
       </c>
       <c r="C278">
-        <v>0.23507664955736299</v>
+        <v>0.23688345333537</v>
       </c>
       <c r="D278">
-        <v>669346.61820370401</v>
+        <v>641882.48810159205</v>
       </c>
       <c r="E278">
-        <v>413866.30071291898</v>
+        <v>395530.475484922</v>
       </c>
       <c r="F278">
         <v>0</v>
       </c>
       <c r="G278">
-        <v>165211.29325742001</v>
+        <v>159333.00014113399</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -17157,16 +17157,16 @@
         <v>0</v>
       </c>
       <c r="J278">
-        <v>90269.024233364296</v>
+        <v>87019.012475534793</v>
       </c>
       <c r="K278">
         <v>0</v>
       </c>
       <c r="L278">
-        <v>0.232318588682075</v>
+        <v>0.22147430535373699</v>
       </c>
       <c r="M278">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -17177,19 +17177,19 @@
         <v>9.4143333333333299</v>
       </c>
       <c r="C279">
-        <v>0.23636827949998601</v>
+        <v>0.23818501077127799</v>
       </c>
       <c r="D279">
-        <v>681201.427123431</v>
+        <v>653126.846876189</v>
       </c>
       <c r="E279">
-        <v>418146.54755624197</v>
+        <v>399620.840521743</v>
       </c>
       <c r="F279">
         <v>0</v>
       </c>
       <c r="G279">
-        <v>171791.16284966801</v>
+        <v>165528.11392619999</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -17198,16 +17198,16 @@
         <v>0</v>
       </c>
       <c r="J279">
-        <v>91263.716717520103</v>
+        <v>87977.892428244901</v>
       </c>
       <c r="K279">
         <v>0</v>
       </c>
       <c r="L279">
-        <v>0.23228464650397501</v>
+        <v>0.22143810207392101</v>
       </c>
       <c r="M279">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -17218,19 +17218,19 @@
         <v>9.4657777777777703</v>
       </c>
       <c r="C280">
-        <v>0.23765990944260801</v>
+        <v>0.239486568207187</v>
       </c>
       <c r="D280">
-        <v>693209.98383549205</v>
+        <v>664514.66809077095</v>
       </c>
       <c r="E280">
-        <v>422447.46740770002</v>
+        <v>403730.95906427997</v>
       </c>
       <c r="F280">
         <v>0</v>
       </c>
       <c r="G280">
-        <v>178498.65685634001</v>
+        <v>171841.68250880801</v>
       </c>
       <c r="H280">
         <v>0</v>
@@ -17239,16 +17239,16 @@
         <v>0</v>
       </c>
       <c r="J280">
-        <v>92263.859571452107</v>
+        <v>88942.026517682199</v>
       </c>
       <c r="K280">
         <v>0</v>
       </c>
       <c r="L280">
-        <v>0.23225092744187301</v>
+        <v>0.221402136207411</v>
       </c>
       <c r="M280">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -17259,19 +17259,19 @@
         <v>9.5172222222222196</v>
       </c>
       <c r="C281">
-        <v>0.238951539385231</v>
+        <v>0.24078812564309601</v>
       </c>
       <c r="D281">
-        <v>705373.36853695998</v>
+        <v>676050.10273309797</v>
       </c>
       <c r="E281">
-        <v>426769.04783959</v>
+        <v>407860.81922773999</v>
       </c>
       <c r="F281">
         <v>0</v>
       </c>
       <c r="G281">
-        <v>185334.86790220899</v>
+        <v>178277.868761511</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -17280,16 +17280,16 @@
         <v>0</v>
       </c>
       <c r="J281">
-        <v>93269.452795160396</v>
+        <v>89911.414743846704</v>
       </c>
       <c r="K281">
         <v>0</v>
       </c>
       <c r="L281">
-        <v>0.2322174288136</v>
+        <v>0.22136640490422799</v>
       </c>
       <c r="M281">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -17300,19 +17300,19 @@
         <v>9.56866666666666</v>
       </c>
       <c r="C282">
-        <v>0.240243169327854</v>
+        <v>0.242089683079004</v>
       </c>
       <c r="D282">
-        <v>717695.07567927102</v>
+        <v>687739.84276029095</v>
       </c>
       <c r="E282">
-        <v>431111.27650261502</v>
+        <v>412010.409202318</v>
       </c>
       <c r="F282">
         <v>0</v>
       </c>
       <c r="G282">
-        <v>192303.30278801001</v>
+        <v>184843.37645123401</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -17321,16 +17321,16 @@
         <v>0</v>
       </c>
       <c r="J282">
-        <v>94280.496388644795</v>
+        <v>90886.057106738401</v>
       </c>
       <c r="K282">
         <v>0</v>
       </c>
       <c r="L282">
-        <v>0.232184147983614</v>
+        <v>0.22133090536389199</v>
       </c>
       <c r="M282">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -17341,19 +17341,19 @@
         <v>9.6201111111111093</v>
       </c>
       <c r="C283">
-        <v>0.241534799270477</v>
+        <v>0.24339124051491301</v>
       </c>
       <c r="D283">
-        <v>730181.231247155</v>
+        <v>699593.22955416504</v>
       </c>
       <c r="E283">
-        <v>435474.14112496702</v>
+        <v>416179.71725232102</v>
       </c>
       <c r="F283">
         <v>0</v>
       </c>
       <c r="G283">
-        <v>199410.09977028199</v>
+        <v>191547.55869548701</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -17362,16 +17362,16 @@
         <v>0</v>
       </c>
       <c r="J283">
-        <v>95296.990351905406</v>
+        <v>91865.953606357201</v>
       </c>
       <c r="K283">
         <v>0</v>
       </c>
       <c r="L283">
-        <v>0.23215108236194401</v>
+        <v>0.22129563483428899</v>
       </c>
       <c r="M283">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -17382,19 +17382,19 @@
         <v>9.6715555555555497</v>
       </c>
       <c r="C284">
-        <v>0.24282642921309999</v>
+        <v>0.24469279795082199</v>
       </c>
       <c r="D284">
-        <v>742840.73816286505</v>
+        <v>711622.29014615598</v>
       </c>
       <c r="E284">
-        <v>439857.62951141997</v>
+        <v>420368.73171530198</v>
       </c>
       <c r="F284">
         <v>0</v>
       </c>
       <c r="G284">
-        <v>206664.173966503</v>
+        <v>198402.45418815</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -17403,16 +17403,16 @@
         <v>0</v>
       </c>
       <c r="J284">
-        <v>96318.9346849422</v>
+        <v>92851.104242703193</v>
       </c>
       <c r="K284">
         <v>0</v>
       </c>
       <c r="L284">
-        <v>0.23211822940315899</v>
+        <v>0.22126059061059</v>
       </c>
       <c r="M284">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -17423,19 +17423,19 @@
         <v>9.7230000000000008</v>
       </c>
       <c r="C285">
-        <v>0.24411805915572299</v>
+        <v>0.24599435538673001</v>
       </c>
       <c r="D285">
-        <v>755685.34660457203</v>
+        <v>723841.70262775803</v>
       </c>
       <c r="E285">
-        <v>444261.72954244801</v>
+        <v>424577.44100121601</v>
       </c>
       <c r="F285">
         <v>0</v>
       </c>
       <c r="G285">
-        <v>214077.28767436801</v>
+        <v>205422.75261076499</v>
       </c>
       <c r="H285">
         <v>0</v>
@@ -17444,16 +17444,16 @@
         <v>0</v>
       </c>
       <c r="J285">
-        <v>97346.329387755206</v>
+        <v>93841.509015776406</v>
       </c>
       <c r="K285">
         <v>0</v>
       </c>
       <c r="L285">
-        <v>0.23208558660537101</v>
+        <v>0.221225770034184</v>
       </c>
       <c r="M285">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -17464,19 +17464,19 @@
         <v>9.7744444444444394</v>
       </c>
       <c r="C286">
-        <v>0.24540968909834601</v>
+        <v>0.24729591282263899</v>
       </c>
       <c r="D286">
-        <v>768729.64938453003</v>
+        <v>736268.69479264505</v>
       </c>
       <c r="E286">
-        <v>448686.429173354</v>
+        <v>428805.83359158301</v>
       </c>
       <c r="F286">
         <v>0</v>
       </c>
       <c r="G286">
-        <v>221664.04575083</v>
+        <v>212625.69327548501</v>
       </c>
       <c r="H286">
         <v>0</v>
@@ -17485,16 +17485,16 @@
         <v>0</v>
       </c>
       <c r="J286">
-        <v>98379.174460344395</v>
+        <v>94837.167925576796</v>
       </c>
       <c r="K286">
         <v>0</v>
       </c>
       <c r="L286">
-        <v>0.23205315150926101</v>
+        <v>0.22119117049165199</v>
       </c>
       <c r="M286">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -17505,19 +17505,19 @@
         <v>9.8258888888888904</v>
       </c>
       <c r="C287">
-        <v>0.24670131904096901</v>
+        <v>0.248597470258547</v>
       </c>
       <c r="D287">
-        <v>781991.00546713895</v>
+        <v>748922.88205291505</v>
       </c>
       <c r="E287">
-        <v>453131.71643340698</v>
+        <v>433053.89803866699</v>
       </c>
       <c r="F287">
         <v>0</v>
       </c>
       <c r="G287">
-        <v>229441.81913102101</v>
+        <v>220030.90304214301</v>
       </c>
       <c r="H287">
         <v>0</v>
@@ -17526,16 +17526,16 @@
         <v>0</v>
       </c>
       <c r="J287">
-        <v>99417.469902709898</v>
+        <v>95838.080972104406</v>
       </c>
       <c r="K287">
         <v>0</v>
       </c>
       <c r="L287">
-        <v>0.23202092169713801</v>
+        <v>0.22115678941376399</v>
       </c>
       <c r="M287">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -17546,19 +17546,19 @@
         <v>9.8773333333333309</v>
       </c>
       <c r="C288">
-        <v>0.24799294898359101</v>
+        <v>0.24989902769445599</v>
       </c>
       <c r="D288">
-        <v>795489.39704656997</v>
+        <v>761826.05197169003</v>
       </c>
       <c r="E288">
-        <v>457597.57942500501</v>
+        <v>437321.622964676</v>
       </c>
       <c r="F288">
         <v>0</v>
       </c>
       <c r="G288">
-        <v>237430.60190671301</v>
+        <v>227660.180851654</v>
       </c>
       <c r="H288">
         <v>0</v>
@@ -17567,16 +17567,16 @@
         <v>0</v>
       </c>
       <c r="J288">
-        <v>100461.215714851</v>
+        <v>96844.248155359106</v>
       </c>
       <c r="K288">
         <v>0</v>
       </c>
       <c r="L288">
-        <v>0.23198889479201401</v>
+        <v>0.221122624274499</v>
       </c>
       <c r="M288">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -17587,19 +17587,19 @@
         <v>9.9287777777777695</v>
       </c>
       <c r="C289">
-        <v>0.249284578926214</v>
+        <v>0.25120058513036497</v>
       </c>
       <c r="D289">
-        <v>809247.22725168499</v>
+        <v>775001.90336855501</v>
       </c>
       <c r="E289">
-        <v>462084.00632284302</v>
+        <v>441608.99706096202</v>
       </c>
       <c r="F289">
         <v>0</v>
       </c>
       <c r="G289">
-        <v>245652.80903207199</v>
+        <v>235537.23683225201</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -17608,16 +17608,16 @@
         <v>0</v>
       </c>
       <c r="J289">
-        <v>101510.411896769</v>
+        <v>97855.669475340997</v>
       </c>
       <c r="K289">
         <v>0</v>
       </c>
       <c r="L289">
-        <v>0.23195706845671599</v>
+        <v>0.22108867259010501</v>
       </c>
       <c r="M289">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -17628,19 +17628,19 @@
         <v>9.9802222222222206</v>
       </c>
       <c r="C290">
-        <v>0.25057620886883702</v>
+        <v>0.25250214256627301</v>
       </c>
       <c r="D290">
-        <v>823289.06648262101</v>
+        <v>788475.74795630097</v>
       </c>
       <c r="E290">
-        <v>466590.985373098</v>
+        <v>445916.009087243</v>
       </c>
       <c r="F290">
         <v>0</v>
       </c>
       <c r="G290">
-        <v>254133.02266105899</v>
+        <v>243687.393937007</v>
       </c>
       <c r="H290">
         <v>0</v>
@@ -17649,16 +17649,16 @@
         <v>0</v>
       </c>
       <c r="J290">
-        <v>102565.05844846299</v>
+        <v>98872.344932050095</v>
       </c>
       <c r="K290">
         <v>0</v>
       </c>
       <c r="L290">
-        <v>0.23192544039301</v>
+        <v>0.221054931918169</v>
       </c>
       <c r="M290">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -17669,19 +17669,19 @@
         <v>10.031666666666601</v>
       </c>
       <c r="C291">
-        <v>0.25186783881146002</v>
+        <v>0.253803700002182</v>
       </c>
       <c r="D291">
-        <v>837641.35565683094</v>
+        <v>802274.18197592895</v>
       </c>
       <c r="E291">
-        <v>471118.504892628</v>
+        <v>450242.64787084202</v>
       </c>
       <c r="F291">
         <v>0</v>
       </c>
       <c r="G291">
-        <v>262897.69539426803</v>
+        <v>252137.25957960001</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -17690,16 +17690,16 @@
         <v>0</v>
       </c>
       <c r="J291">
-        <v>103625.155369933</v>
+        <v>99894.274525486398</v>
       </c>
       <c r="K291">
         <v>0</v>
       </c>
       <c r="L291">
-        <v>0.23189400834075699</v>
+        <v>0.22102139985672001</v>
       </c>
       <c r="M291">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
@@ -17710,19 +17710,19 @@
         <v>10.0831111111111</v>
       </c>
       <c r="C292">
-        <v>0.25315946875408302</v>
+        <v>0.25510525743809098</v>
       </c>
       <c r="D292">
-        <v>852332.07435445895</v>
+        <v>816424.73445790599</v>
       </c>
       <c r="E292">
-        <v>475666.55326818401</v>
+        <v>454588.90230592201</v>
       </c>
       <c r="F292">
         <v>0</v>
       </c>
       <c r="G292">
-        <v>271974.818425095</v>
+        <v>260914.373896334</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -17731,16 +17731,16 @@
         <v>0</v>
       </c>
       <c r="J292">
-        <v>104690.70266117901</v>
+        <v>100921.45825564901</v>
       </c>
       <c r="K292">
         <v>0</v>
       </c>
       <c r="L292">
-        <v>0.231862770077092</v>
+        <v>0.22098807404335999</v>
       </c>
       <c r="M292">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -17751,19 +17751,19 @@
         <v>10.134555555555499</v>
       </c>
       <c r="C293">
-        <v>0.25445109869670601</v>
+        <v>0.25640681487399902</v>
       </c>
       <c r="D293">
-        <v>867390.38114110602</v>
+        <v>830955.49770581396</v>
       </c>
       <c r="E293">
-        <v>480235.11895563098</v>
+        <v>458954.76135275402</v>
       </c>
       <c r="F293">
         <v>0</v>
       </c>
       <c r="G293">
-        <v>281393.56186327297</v>
+        <v>270046.84023051901</v>
       </c>
       <c r="H293">
         <v>0</v>
@@ -17772,16 +17772,16 @@
         <v>0</v>
       </c>
       <c r="J293">
-        <v>105761.700322202</v>
+        <v>101953.89612254</v>
       </c>
       <c r="K293">
         <v>0</v>
       </c>
       <c r="L293">
-        <v>0.231831723415617</v>
+        <v>0.220954952154405</v>
       </c>
       <c r="M293">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -17792,19 +17792,19 @@
         <v>10.186</v>
       </c>
       <c r="C294">
-        <v>0.25574272863932901</v>
+        <v>0.25770837230990801</v>
       </c>
       <c r="D294">
-        <v>882846.23236477503</v>
+        <v>845894.74452195305</v>
       </c>
       <c r="E294">
-        <v>484824.19047918601</v>
+        <v>463340.21403698</v>
       </c>
       <c r="F294">
         <v>0</v>
       </c>
       <c r="G294">
-        <v>291183.89353258698</v>
+        <v>279562.94235881401</v>
       </c>
       <c r="H294">
         <v>0</v>
@@ -17813,16 +17813,16 @@
         <v>0</v>
       </c>
       <c r="J294">
-        <v>106838.148353001</v>
+        <v>102991.58812615801</v>
       </c>
       <c r="K294">
         <v>0</v>
       </c>
       <c r="L294">
-        <v>0.23180086620562099</v>
+        <v>0.22092203190406501</v>
       </c>
       <c r="M294">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -17833,19 +17833,19 @@
         <v>10.237444444444399</v>
       </c>
       <c r="C295">
-        <v>0.25703435858195101</v>
+        <v>0.25900992974581599</v>
       </c>
       <c r="D295">
-        <v>898729.98462786095</v>
+        <v>861270.53570274601</v>
       </c>
       <c r="E295">
-        <v>489433.75643066998</v>
+        <v>467745.24944889802</v>
       </c>
       <c r="F295">
         <v>0</v>
       </c>
       <c r="G295">
-        <v>301376.181443615</v>
+        <v>289490.75198734499</v>
       </c>
       <c r="H295">
         <v>0</v>
@@ -17854,16 +17854,16 @@
         <v>0</v>
       </c>
       <c r="J295">
-        <v>107920.046753576</v>
+        <v>104034.534266503</v>
       </c>
       <c r="K295">
         <v>0</v>
       </c>
       <c r="L295">
-        <v>0.23177019633132201</v>
+        <v>0.22088931104363099</v>
       </c>
       <c r="M295">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -17874,19 +17874,19 @@
         <v>10.288888888888801</v>
       </c>
       <c r="C296">
-        <v>0.258325988524574</v>
+        <v>0.26031148718172498</v>
       </c>
       <c r="D296">
-        <v>915071.98506544705</v>
+        <v>877110.32052767195</v>
       </c>
       <c r="E296">
-        <v>494063.80546876299</v>
+        <v>472169.85674275202</v>
       </c>
       <c r="F296">
         <v>0</v>
       </c>
       <c r="G296">
-        <v>312000.78407275601</v>
+        <v>299857.72924134397</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -17895,16 +17895,16 @@
         <v>0</v>
       </c>
       <c r="J296">
-        <v>109007.395523927</v>
+        <v>105082.734543575</v>
       </c>
       <c r="K296">
         <v>0</v>
       </c>
       <c r="L296">
-        <v>0.23173971171112701</v>
+        <v>0.220856787360693</v>
       </c>
       <c r="M296">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -17915,19 +17915,19 @@
         <v>10.3403333333333</v>
       </c>
       <c r="C297">
-        <v>0.259617618467197</v>
+        <v>0.26161304461763402</v>
       </c>
       <c r="D297">
-        <v>931902.15263600496</v>
+        <v>893440.53242172999</v>
       </c>
       <c r="E297">
-        <v>498714.32631828001</v>
+        <v>476614.02513603901</v>
       </c>
       <c r="F297">
         <v>0</v>
       </c>
       <c r="G297">
-        <v>323087.631653669</v>
+        <v>310690.31832831498</v>
       </c>
       <c r="H297">
         <v>0</v>
@@ -17936,16 +17936,16 @@
         <v>0</v>
       </c>
       <c r="J297">
-        <v>110100.194664054</v>
+        <v>106136.188957374</v>
       </c>
       <c r="K297">
         <v>0</v>
       </c>
       <c r="L297">
-        <v>0.231709410296908</v>
+        <v>0.220824458678373</v>
       </c>
       <c r="M297">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -17956,19 +17956,19 @@
         <v>10.391777777777699</v>
       </c>
       <c r="C298">
-        <v>0.26090924840981999</v>
+        <v>0.262914602053542</v>
       </c>
       <c r="D298">
-        <v>949249.55293856899</v>
+        <v>910286.18172905804</v>
       </c>
       <c r="E298">
-        <v>503385.30776945699</v>
+        <v>481077.74390882498</v>
       </c>
       <c r="F298">
         <v>0</v>
       </c>
       <c r="G298">
-        <v>334665.80099515303</v>
+        <v>322013.540312331</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -17977,16 +17977,16 @@
         <v>0</v>
       </c>
       <c r="J298">
-        <v>111198.44417395801</v>
+        <v>107194.897507901</v>
       </c>
       <c r="K298">
         <v>0</v>
       </c>
       <c r="L298">
-        <v>0.23167929007330099</v>
+        <v>0.220792322854585</v>
       </c>
       <c r="M298">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -17997,19 +17997,19 @@
         <v>10.4432222222222</v>
       </c>
       <c r="C299">
-        <v>0.26220087835244299</v>
+        <v>0.26421615948945099</v>
       </c>
       <c r="D299">
-        <v>967141.96866904094</v>
+        <v>927670.44760565995</v>
       </c>
       <c r="E299">
-        <v>508076.73867724201</v>
+        <v>485561.00240306498</v>
       </c>
       <c r="F299">
         <v>0</v>
       </c>
       <c r="G299">
-        <v>346763.08593816002</v>
+        <v>333850.58500743902</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -18018,16 +18018,16 @@
         <v>0</v>
       </c>
       <c r="J299">
-        <v>112302.144053638</v>
+        <v>108258.86019515499</v>
       </c>
       <c r="K299">
         <v>0</v>
       </c>
       <c r="L299">
-        <v>0.231649349057023</v>
+        <v>0.220760377781301</v>
       </c>
       <c r="M299">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -18038,19 +18038,19 @@
         <v>10.4946666666666</v>
       </c>
       <c r="C300">
-        <v>0.26349250829506599</v>
+        <v>0.26551771692536003</v>
       </c>
       <c r="D300">
-        <v>985605.46774390305</v>
+        <v>945614.27140690503</v>
       </c>
       <c r="E300">
-        <v>512788.60796060401</v>
+        <v>490063.79002194898</v>
       </c>
       <c r="F300">
         <v>0</v>
       </c>
       <c r="G300">
-        <v>359405.565480205</v>
+        <v>346222.40436582</v>
       </c>
       <c r="H300">
         <v>0</v>
@@ -18059,16 +18059,16 @@
         <v>0</v>
       </c>
       <c r="J300">
-        <v>113411.29430309399</v>
+        <v>109328.077019135</v>
       </c>
       <c r="K300">
         <v>0</v>
       </c>
       <c r="L300">
-        <v>0.23161958529620399</v>
+        <v>0.22072862138385199</v>
       </c>
       <c r="M300">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -18079,19 +18079,19 @@
         <v>10.546111111111101</v>
       </c>
       <c r="C301">
-        <v>0.26478413823768898</v>
+        <v>0.26681927436126801</v>
       </c>
       <c r="D301">
-        <v>1004663.97135015</v>
+        <v>964135.95457225095</v>
       </c>
       <c r="E301">
-        <v>517520.90460184898</v>
+        <v>494586.096229241</v>
       </c>
       <c r="F301">
         <v>0</v>
       </c>
       <c r="G301">
-        <v>372617.17182597501</v>
+        <v>359147.31036316499</v>
       </c>
       <c r="H301">
         <v>0</v>
@@ -18100,16 +18100,16 @@
         <v>0</v>
       </c>
       <c r="J301">
-        <v>114525.894922326</v>
+        <v>110402.547979843</v>
       </c>
       <c r="K301">
         <v>0</v>
       </c>
       <c r="L301">
-        <v>0.23158999686974099</v>
+        <v>0.22069705162023201</v>
       </c>
       <c r="M301">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -18120,19 +18120,19 @@
         <v>10.5975555555555</v>
       </c>
       <c r="C302">
-        <v>0.26607576818031198</v>
+        <v>0.26812083179717699</v>
       </c>
       <c r="D302">
-        <v>1024338.82469838</v>
+        <v>983250.76483899599</v>
       </c>
       <c r="E302">
-        <v>522273.61764594901</v>
+        <v>499127.91054863902</v>
       </c>
       <c r="F302">
         <v>0</v>
       </c>
       <c r="G302">
-        <v>386419.26114109601</v>
+        <v>372640.581213078</v>
       </c>
       <c r="H302">
         <v>0</v>
@@ -18141,16 +18141,16 @@
         <v>0</v>
       </c>
       <c r="J302">
-        <v>115645.945911334</v>
+        <v>111482.27307727899</v>
       </c>
       <c r="K302">
         <v>0</v>
       </c>
       <c r="L302">
-        <v>0.23156058188665801</v>
+        <v>0.22066566648043301</v>
       </c>
       <c r="M302">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -18161,19 +18161,19 @@
         <v>10.648999999999999</v>
       </c>
       <c r="C303">
-        <v>0.26736739812293497</v>
+        <v>0.26942238923308498</v>
       </c>
       <c r="D303">
-        <v>1044648.37401364</v>
+        <v>1002970.55557828</v>
       </c>
       <c r="E303">
-        <v>527046.736199882</v>
+        <v>503689.222563143</v>
       </c>
       <c r="F303">
         <v>0</v>
       </c>
       <c r="G303">
-        <v>400830.19054364</v>
+        <v>386714.080703696</v>
       </c>
       <c r="H303">
         <v>0</v>
@@ -18182,16 +18182,16 @@
         <v>0</v>
       </c>
       <c r="J303">
-        <v>116771.447270119</v>
+        <v>112567.252311441</v>
       </c>
       <c r="K303">
         <v>0</v>
       </c>
       <c r="L303">
-        <v>0.23153133848549601</v>
+        <v>0.22063446398578601</v>
       </c>
       <c r="M303">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -18202,19 +18202,19 @@
         <v>10.7004444444444</v>
       </c>
       <c r="C304">
-        <v>0.26865902806555703</v>
+        <v>0.27072394666899402</v>
       </c>
       <c r="D304">
-        <v>1065607.5542312199</v>
+        <v>1023303.4040596</v>
       </c>
       <c r="E304">
-        <v>531840.24943197402</v>
+        <v>508270.02191443002</v>
       </c>
       <c r="F304">
         <v>0</v>
       </c>
       <c r="G304">
-        <v>415864.90580056899</v>
+        <v>401375.89646283799</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -18223,16 +18223,16 @@
         <v>0</v>
       </c>
       <c r="J304">
-        <v>117902.398998679</v>
+        <v>113657.485682331</v>
       </c>
       <c r="K304">
         <v>0</v>
       </c>
       <c r="L304">
-        <v>0.231502264833709</v>
+        <v>0.22060344218832201</v>
       </c>
       <c r="M304">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -18243,19 +18243,19 @@
         <v>10.7518888888888</v>
       </c>
       <c r="C305">
-        <v>0.26995065800818002</v>
+        <v>0.272025504104903</v>
       </c>
       <c r="D305">
-        <v>1087227.4928953301</v>
+        <v>1044253.27542955</v>
       </c>
       <c r="E305">
-        <v>536654.146571266</v>
+        <v>512870.29830224201</v>
       </c>
       <c r="F305">
         <v>0</v>
       </c>
       <c r="G305">
-        <v>431534.54522705299</v>
+        <v>416630.00393736601</v>
       </c>
       <c r="H305">
         <v>0</v>
@@ -18264,16 +18264,16 @@
         <v>0</v>
       </c>
       <c r="J305">
-        <v>119038.801097016</v>
+        <v>114752.97318994701</v>
       </c>
       <c r="K305">
         <v>0</v>
       </c>
       <c r="L305">
-        <v>0.23147335912707701</v>
+        <v>0.22057259917015601</v>
       </c>
       <c r="M305">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -18284,19 +18284,19 @@
         <v>10.803333333333301</v>
       </c>
       <c r="C306">
-        <v>0.27124228795080302</v>
+        <v>0.27332706154081099</v>
       </c>
       <c r="D306">
-        <v>1109515.13680303</v>
+        <v>1065819.7200495601</v>
       </c>
       <c r="E306">
-        <v>541488.41690687404</v>
+        <v>517490.04148378101</v>
       </c>
       <c r="F306">
         <v>0</v>
       </c>
       <c r="G306">
-        <v>447846.06633102702</v>
+        <v>432475.963731486</v>
       </c>
       <c r="H306">
         <v>0</v>
@@ -18305,16 +18305,16 @@
         <v>0</v>
       </c>
       <c r="J306">
-        <v>120180.653565129</v>
+        <v>115853.71483429099</v>
       </c>
       <c r="K306">
         <v>0</v>
       </c>
       <c r="L306">
-        <v>0.23144461958913501</v>
+        <v>0.220541933042875</v>
       </c>
       <c r="M306">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -18325,19 +18325,19 @@
         <v>10.8547777777777</v>
       </c>
       <c r="C307">
-        <v>0.27253391789342601</v>
+        <v>0.27462861897671997</v>
       </c>
       <c r="D307">
-        <v>1132472.90890582</v>
+        <v>1087997.6124925099</v>
       </c>
       <c r="E307">
-        <v>546343.04978737305</v>
+        <v>522129.24127311201</v>
       </c>
       <c r="F307">
         <v>0</v>
       </c>
       <c r="G307">
-        <v>464801.90271542798</v>
+        <v>448908.660604037</v>
       </c>
       <c r="H307">
         <v>0</v>
@@ -18346,16 +18346,16 @@
         <v>0</v>
       </c>
       <c r="J307">
-        <v>121327.95640301899</v>
+        <v>116959.710615363</v>
       </c>
       <c r="K307">
         <v>0</v>
       </c>
       <c r="L307">
-        <v>0.23141604447061501</v>
+        <v>0.220511441946946</v>
       </c>
       <c r="M307">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -18366,19 +18366,19 @@
         <v>10.906222222222199</v>
       </c>
       <c r="C308">
-        <v>0.27382554783604901</v>
+        <v>0.27593017641262901</v>
       </c>
       <c r="D308">
-        <v>1156098.4037899401</v>
+        <v>1110776.9408742599</v>
       </c>
       <c r="E308">
-        <v>551218.03462017898</v>
+        <v>526787.88754057896</v>
       </c>
       <c r="F308">
         <v>0</v>
       </c>
       <c r="G308">
-        <v>482399.659559083</v>
+        <v>465918.092800527</v>
       </c>
       <c r="H308">
         <v>0</v>
@@ -18387,16 +18387,16 @@
         <v>0</v>
       </c>
       <c r="J308">
-        <v>122480.709610684</v>
+        <v>118070.96053316099</v>
       </c>
       <c r="K308">
         <v>0</v>
       </c>
       <c r="L308">
-        <v>0.231387632048906</v>
+        <v>0.22048112405114501</v>
       </c>
       <c r="M308">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -18407,19 +18407,19 @@
         <v>10.957666666666601</v>
       </c>
       <c r="C309">
-        <v>0.27511717777867201</v>
+        <v>0.277231733848537</v>
       </c>
       <c r="D309">
-        <v>1180384.1306209599</v>
+        <v>1134142.65522766</v>
       </c>
       <c r="E309">
-        <v>556113.36087095097</v>
+        <v>531465.97021222604</v>
       </c>
       <c r="F309">
         <v>0</v>
       </c>
       <c r="G309">
-        <v>500631.85656189098</v>
+        <v>483489.220427753</v>
       </c>
       <c r="H309">
         <v>0</v>
@@ -18428,16 +18428,16 @@
         <v>0</v>
       </c>
       <c r="J309">
-        <v>123638.913188126</v>
+        <v>119187.464587686</v>
       </c>
       <c r="K309">
         <v>0</v>
       </c>
       <c r="L309">
-        <v>0.23135938062751801</v>
+        <v>0.220450977551988</v>
       </c>
       <c r="M309">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -18448,19 +18448,19 @@
         <v>11.0091111111111</v>
       </c>
       <c r="C310">
-        <v>0.276408807721295</v>
+        <v>0.27853329128444598</v>
       </c>
       <c r="D310">
-        <v>1205317.31268662</v>
+        <v>1158074.58326716</v>
       </c>
       <c r="E310">
-        <v>561029.01806299097</v>
+        <v>536163.47926923202</v>
       </c>
       <c r="F310">
         <v>0</v>
       </c>
       <c r="G310">
-        <v>519485.72748829302</v>
+        <v>501601.881218997</v>
       </c>
       <c r="H310">
         <v>0</v>
@@ -18469,16 +18469,16 @@
         <v>0</v>
       </c>
       <c r="J310">
-        <v>124802.567135344</v>
+        <v>120309.222778939</v>
       </c>
       <c r="K310">
         <v>0</v>
       </c>
       <c r="L310">
-        <v>0.231331288535569</v>
+        <v>0.22042100067318601</v>
       </c>
       <c r="M310">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -18489,19 +18489,19 @@
         <v>11.060555555555499</v>
       </c>
       <c r="C311">
-        <v>0.277700437663917</v>
+        <v>0.27983484872035402</v>
       </c>
       <c r="D311">
-        <v>1230879.7525446001</v>
+        <v>1182547.4211114601</v>
       </c>
       <c r="E311">
-        <v>565964.99577666004</v>
+        <v>540880.40474734595</v>
       </c>
       <c r="F311">
         <v>0</v>
       </c>
       <c r="G311">
-        <v>538943.085315604</v>
+        <v>520230.78125719901</v>
       </c>
       <c r="H311">
         <v>0</v>
@@ -18510,16 +18510,16 @@
         <v>0</v>
       </c>
       <c r="J311">
-        <v>125971.67145233801</v>
+        <v>121436.235106919</v>
       </c>
       <c r="K311">
         <v>0</v>
       </c>
       <c r="L311">
-        <v>0.23130335412727701</v>
+        <v>0.22039119166510901</v>
       </c>
       <c r="M311">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -18530,19 +18530,19 @@
         <v>11.112</v>
       </c>
       <c r="C312">
-        <v>0.27899206760654</v>
+        <v>0.28113640615626301</v>
       </c>
       <c r="D312">
-        <v>1257047.77123726</v>
+        <v>1207530.8053236899</v>
       </c>
       <c r="E312">
-        <v>570921.28364880302</v>
+        <v>545616.73673633405</v>
       </c>
       <c r="F312">
         <v>0</v>
       </c>
       <c r="G312">
-        <v>558980.261449354</v>
+        <v>539345.56701573695</v>
       </c>
       <c r="H312">
         <v>0</v>
@@ -18551,16 +18551,16 @@
         <v>0</v>
       </c>
       <c r="J312">
-        <v>127146.226139108</v>
+        <v>122568.50157162599</v>
       </c>
       <c r="K312">
         <v>0</v>
       </c>
       <c r="L312">
-        <v>0.23127557578147201</v>
+        <v>0.22036154880426101</v>
       </c>
       <c r="M312">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -18571,19 +18571,19 @@
         <v>11.1634444444444</v>
       </c>
       <c r="C313">
-        <v>0.28028369754916299</v>
+        <v>0.28243796359217199</v>
       </c>
       <c r="D313">
-        <v>1283792.2290532801</v>
+        <v>1232989.47101161</v>
       </c>
       <c r="E313">
-        <v>575897.87137217505</v>
+        <v>550372.46537944197</v>
       </c>
       <c r="F313">
         <v>0</v>
       </c>
       <c r="G313">
-        <v>579568.12648545799</v>
+        <v>558910.98345911398</v>
       </c>
       <c r="H313">
         <v>0</v>
@@ -18592,16 +18592,16 @@
         <v>0</v>
       </c>
       <c r="J313">
-        <v>128326.231195655</v>
+        <v>123706.02217306</v>
       </c>
       <c r="K313">
         <v>0</v>
       </c>
       <c r="L313">
-        <v>0.231247951901111</v>
+        <v>0.220332070392772</v>
       </c>
       <c r="M313">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -18612,19 +18612,19 @@
         <v>11.214888888888799</v>
       </c>
       <c r="C314">
-        <v>0.28157532749178599</v>
+        <v>0.28373952102807998</v>
       </c>
       <c r="D314">
-        <v>1311078.6338987499</v>
+        <v>1258883.4987455001</v>
       </c>
       <c r="E314">
-        <v>580894.74869488704</v>
+        <v>555147.58087285399</v>
       </c>
       <c r="F314">
         <v>0</v>
       </c>
       <c r="G314">
-        <v>600672.19858189195</v>
+        <v>578887.120961432</v>
       </c>
       <c r="H314">
         <v>0</v>
@@ -18633,16 +18633,16 @@
         <v>0</v>
       </c>
       <c r="J314">
-        <v>129511.68662197801</v>
+        <v>124848.796911221</v>
       </c>
       <c r="K314">
         <v>0</v>
       </c>
       <c r="L314">
-        <v>0.231220480912813</v>
+        <v>0.22030275475790401</v>
       </c>
       <c r="M314">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -18653,19 +18653,19 @@
         <v>11.2663333333333</v>
       </c>
       <c r="C315">
-        <v>0.28286695743440898</v>
+        <v>0.28504107846398902</v>
       </c>
       <c r="D315">
-        <v>1338867.3415159299</v>
+        <v>1285168.65076648</v>
       </c>
       <c r="E315">
-        <v>585911.90541985095</v>
+        <v>559942.07346516498</v>
       </c>
       <c r="F315">
         <v>0</v>
       </c>
       <c r="G315">
-        <v>622252.84367800294</v>
+        <v>599229.75151520502</v>
       </c>
       <c r="H315">
         <v>0</v>
@@ -18674,16 +18674,16 @@
         <v>0</v>
       </c>
       <c r="J315">
-        <v>130702.59241807699</v>
+        <v>125996.82578611</v>
       </c>
       <c r="K315">
         <v>0</v>
       </c>
       <c r="L315">
-        <v>0.231193161266397</v>
+        <v>0.22027360025155601</v>
       </c>
       <c r="M315">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -18694,19 +18694,19 @@
         <v>11.3177777777777</v>
       </c>
       <c r="C316">
-        <v>0.28415858737703198</v>
+        <v>0.286342635899898</v>
       </c>
       <c r="D316">
-        <v>1367113.84960871</v>
+        <v>1311796.7944588801</v>
       </c>
       <c r="E316">
-        <v>590949.331404233</v>
+        <v>564755.93345686095</v>
       </c>
       <c r="F316">
         <v>0</v>
       </c>
       <c r="G316">
-        <v>644265.56962052803</v>
+        <v>619890.75220430002</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -18715,16 +18715,16 @@
         <v>0</v>
       </c>
       <c r="J316">
-        <v>131898.94858395201</v>
+        <v>127150.108797726</v>
       </c>
       <c r="K316">
         <v>0</v>
       </c>
       <c r="L316">
-        <v>0.23116599143444</v>
+        <v>0.220244605249799</v>
       </c>
       <c r="M316">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
@@ -18735,19 +18735,19 @@
         <v>11.3692222222222</v>
       </c>
       <c r="C317">
-        <v>0.28545021731965498</v>
+        <v>0.28764419333580599</v>
       </c>
       <c r="D317">
-        <v>1395769.18547581</v>
+        <v>1338716.40845279</v>
       </c>
       <c r="E317">
-        <v>596007.01655892201</v>
+        <v>569589.15119980695</v>
       </c>
       <c r="F317">
         <v>0</v>
       </c>
       <c r="G317">
-        <v>666661.41379728902</v>
+        <v>640818.61130691704</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -18756,16 +18756,16 @@
         <v>0</v>
       </c>
       <c r="J317">
-        <v>133100.75511960301</v>
+        <v>128308.64594606899</v>
       </c>
       <c r="K317">
         <v>0</v>
       </c>
       <c r="L317">
-        <v>0.23113896991183699</v>
+        <v>0.22021576815241001</v>
       </c>
       <c r="M317">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
@@ -18776,19 +18776,19 @@
         <v>11.4206666666666</v>
       </c>
       <c r="C318">
-        <v>0.28674184726227803</v>
+        <v>0.28894575077171503</v>
       </c>
       <c r="D318">
-        <v>1424780.38411164</v>
+        <v>1365873.16412151</v>
       </c>
       <c r="E318">
-        <v>601084.95084799698</v>
+        <v>574441.71709674201</v>
       </c>
       <c r="F318">
         <v>0</v>
       </c>
       <c r="G318">
-        <v>689387.42123861995</v>
+        <v>661959.00979363394</v>
       </c>
       <c r="H318">
         <v>0</v>
@@ -18797,16 +18797,16 @@
         <v>0</v>
       </c>
       <c r="J318">
-        <v>134308.01202503001</v>
+        <v>129472.437231139</v>
       </c>
       <c r="K318">
         <v>0</v>
       </c>
       <c r="L318">
-        <v>0.23111209521537601</v>
+        <v>0.22018708738241599</v>
       </c>
       <c r="M318">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -18817,19 +18817,19 @@
         <v>11.472111111111101</v>
       </c>
       <c r="C319">
-        <v>0.28803347720490002</v>
+        <v>0.29024730820762401</v>
       </c>
       <c r="D319">
-        <v>1454091.05102246</v>
+        <v>1393210.5727661001</v>
       </c>
       <c r="E319">
-        <v>606183.12428820902</v>
+        <v>579313.62160077703</v>
       </c>
       <c r="F319">
         <v>0</v>
       </c>
       <c r="G319">
-        <v>712387.20743402001</v>
+        <v>683255.46851238899</v>
       </c>
       <c r="H319">
         <v>0</v>
@@ -18838,16 +18838,16 @@
         <v>0</v>
       </c>
       <c r="J319">
-        <v>135520.71930023399</v>
+        <v>130641.482652936</v>
       </c>
       <c r="K319">
         <v>0</v>
       </c>
       <c r="L319">
-        <v>0.23108536588332301</v>
+        <v>0.22015856138565901</v>
       </c>
       <c r="M319">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -18858,19 +18858,19 @@
         <v>11.5235555555555</v>
       </c>
       <c r="C320">
-        <v>0.28932510714752302</v>
+        <v>0.291548865643532</v>
       </c>
       <c r="D320">
-        <v>1483642.0013417699</v>
+        <v>1420670.68655176</v>
       </c>
       <c r="E320">
-        <v>611301.52694846597</v>
+        <v>584204.85521490697</v>
       </c>
       <c r="F320">
         <v>0</v>
       </c>
       <c r="G320">
-        <v>735601.59744809801</v>
+        <v>704650.04912539804</v>
       </c>
       <c r="H320">
         <v>0</v>
@@ -18879,16 +18879,16 @@
         <v>0</v>
       </c>
       <c r="J320">
-        <v>136738.876945214</v>
+        <v>131815.78221146099</v>
       </c>
       <c r="K320">
         <v>0</v>
       </c>
       <c r="L320">
-        <v>0.23105878047501599</v>
+        <v>0.22013018863036199</v>
       </c>
       <c r="M320">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -18899,19 +18899,19 @@
         <v>11.574999999999999</v>
       </c>
       <c r="C321">
-        <v>0.29061673709014602</v>
+        <v>0.29285042307944098</v>
       </c>
       <c r="D321">
-        <v>1513371.9643381799</v>
+        <v>1448194.8393895801</v>
       </c>
       <c r="E321">
-        <v>616440.14894932602</v>
+        <v>589115.40849152603</v>
       </c>
       <c r="F321">
         <v>0</v>
       </c>
       <c r="G321">
-        <v>758969.33042888495</v>
+        <v>726084.09499134996</v>
       </c>
       <c r="H321">
         <v>0</v>
@@ -18920,16 +18920,16 @@
         <v>0</v>
       </c>
       <c r="J321">
-        <v>137962.48495997</v>
+        <v>132995.33590671199</v>
       </c>
       <c r="K321">
         <v>0</v>
       </c>
       <c r="L321">
-        <v>0.23103233757046701</v>
+        <v>0.220101967606707</v>
       </c>
       <c r="M321">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -18940,19 +18940,19 @@
         <v>11.626444444444401</v>
       </c>
       <c r="C322">
-        <v>0.29190836703276901</v>
+        <v>0.29415198051534902</v>
       </c>
       <c r="D322">
-        <v>1543218.3402083099</v>
+        <v>1475724.4125327801</v>
       </c>
       <c r="E322">
-        <v>621598.98046250094</v>
+        <v>594045.27203194902</v>
       </c>
       <c r="F322">
         <v>0</v>
       </c>
       <c r="G322">
-        <v>782427.81640130805</v>
+        <v>747498.99676214706</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -18961,16 +18961,16 @@
         <v>0</v>
       </c>
       <c r="J322">
-        <v>139191.54334450199</v>
+        <v>134180.143738691</v>
       </c>
       <c r="K322">
         <v>0</v>
       </c>
       <c r="L322">
-        <v>0.231006035769975</v>
+        <v>0.220073896826424</v>
       </c>
       <c r="M322">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -18981,19 +18981,19 @@
         <v>11.6778888888888</v>
       </c>
       <c r="C323">
-        <v>0.29319999697539201</v>
+        <v>0.29545353795125801</v>
       </c>
       <c r="D323">
-        <v>1573117.9942447101</v>
+        <v>1503201.60875071</v>
       </c>
       <c r="E323">
-        <v>626778.01171035995</v>
+        <v>598994.43648594304</v>
       </c>
       <c r="F323">
         <v>0</v>
       </c>
       <c r="G323">
-        <v>805913.93043554504</v>
+        <v>768836.96655737096</v>
       </c>
       <c r="H323">
         <v>0</v>
@@ -19002,16 +19002,16 @@
         <v>0</v>
       </c>
       <c r="J323">
-        <v>140426.05209881099</v>
+        <v>135370.20570739699</v>
       </c>
       <c r="K323">
         <v>0</v>
       </c>
       <c r="L323">
-        <v>0.23097987369374801</v>
+        <v>0.22004597482239299</v>
       </c>
       <c r="M323">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -19022,19 +19022,19 @@
         <v>11.729333333333299</v>
       </c>
       <c r="C324">
-        <v>0.294491626918015</v>
+        <v>0.29675509538716699</v>
       </c>
       <c r="D324">
-        <v>1603008.07215006</v>
+        <v>1530570.2185992801</v>
       </c>
       <c r="E324">
-        <v>631977.23296544899</v>
+        <v>603962.892551261</v>
       </c>
       <c r="F324">
         <v>0</v>
       </c>
       <c r="G324">
-        <v>829364.82796172204</v>
+        <v>790041.80423519097</v>
       </c>
       <c r="H324">
         <v>0</v>
@@ -19043,16 +19043,16 @@
         <v>0</v>
       </c>
       <c r="J324">
-        <v>141666.01122289599</v>
+        <v>136565.52181283</v>
       </c>
       <c r="K324">
         <v>0</v>
       </c>
       <c r="L324">
-        <v>0.23095384998153201</v>
+        <v>0.220018200148244</v>
       </c>
       <c r="M324">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -19063,19 +19063,19 @@
         <v>11.780777777777701</v>
       </c>
       <c r="C325">
-        <v>0.295783256860638</v>
+        <v>0.29805665282307497</v>
       </c>
       <c r="D325">
-        <v>1632826.8194994701</v>
+        <v>1557776.3625385801</v>
       </c>
       <c r="E325">
-        <v>637196.63455000997</v>
+        <v>608950.63097318495</v>
       </c>
       <c r="F325">
         <v>0</v>
       </c>
       <c r="G325">
-        <v>852718.764232705</v>
+        <v>811059.63951041002</v>
       </c>
       <c r="H325">
         <v>0</v>
@@ -19084,16 +19084,16 @@
         <v>0</v>
       </c>
       <c r="J325">
-        <v>142911.42071675599</v>
+        <v>137766.09205499</v>
       </c>
       <c r="K325">
         <v>0</v>
       </c>
       <c r="L325">
-        <v>0.23092796329225301</v>
+        <v>0.219990571377983</v>
       </c>
       <c r="M325">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -19104,19 +19104,19 @@
         <v>11.8322222222222</v>
       </c>
       <c r="C326">
-        <v>0.297074886803261</v>
+        <v>0.29935821025898401</v>
       </c>
       <c r="D326">
-        <v>1662514.3881675301</v>
+        <v>1584769.19344216</v>
       </c>
       <c r="E326">
-        <v>642436.20683550695</v>
+        <v>613957.64254407503</v>
       </c>
       <c r="F326">
         <v>0</v>
       </c>
       <c r="G326">
-        <v>875915.90075163299</v>
+        <v>831839.63446421304</v>
       </c>
       <c r="H326">
         <v>0</v>
@@ -19125,16 +19125,16 @@
         <v>0</v>
       </c>
       <c r="J326">
-        <v>144162.280580394</v>
+        <v>138971.91643387801</v>
       </c>
       <c r="K326">
         <v>0</v>
       </c>
       <c r="L326">
-        <v>0.23090221230365801</v>
+        <v>0.219963087105608</v>
       </c>
       <c r="M326">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -19145,19 +19145,19 @@
         <v>11.883666666666601</v>
       </c>
       <c r="C327">
-        <v>0.29836651674588299</v>
+        <v>0.300659767694893</v>
       </c>
       <c r="D327">
-        <v>1692013.6129425</v>
+        <v>1611501.54535555</v>
       </c>
       <c r="E327">
-        <v>647695.940242165</v>
+        <v>618983.91810292494</v>
       </c>
       <c r="F327">
         <v>0</v>
       </c>
       <c r="G327">
-        <v>898899.08188652794</v>
+        <v>852334.63230313896</v>
       </c>
       <c r="H327">
         <v>0</v>
@@ -19166,16 +19166,16 @@
         <v>0</v>
       </c>
       <c r="J327">
-        <v>145418.59081380701</v>
+        <v>140182.994949493</v>
       </c>
       <c r="K327">
         <v>0</v>
       </c>
       <c r="L327">
-        <v>0.230876595711973</v>
+        <v>0.21993574594474799</v>
       </c>
       <c r="M327">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -19186,19 +19186,19 @@
         <v>11.9351111111111</v>
       </c>
       <c r="C328">
-        <v>0.29965814668850599</v>
+        <v>0.30196132513080098</v>
       </c>
       <c r="D328">
-        <v>1721270.7425230599</v>
+        <v>1637930.5161264101</v>
       </c>
       <c r="E328">
-        <v>652975.82523850899</v>
+        <v>624029.44853492104</v>
       </c>
       <c r="F328">
         <v>0</v>
       </c>
       <c r="G328">
-        <v>921614.56586755801</v>
+        <v>872501.73998966196</v>
       </c>
       <c r="H328">
         <v>0</v>
@@ -19207,16 +19207,16 @@
         <v>0</v>
       </c>
       <c r="J328">
-        <v>146680.35141699601</v>
+        <v>141399.32760183499</v>
       </c>
       <c r="K328">
         <v>0</v>
       </c>
       <c r="L328">
-        <v>0.23085111223157001</v>
+        <v>0.21990854652830499</v>
       </c>
       <c r="M328">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -19227,19 +19227,19 @@
         <v>11.986555555555499</v>
       </c>
       <c r="C329">
-        <v>0.30094977663112898</v>
+        <v>0.30326288256671002</v>
       </c>
       <c r="D329">
-        <v>1750236.11058353</v>
+        <v>1664017.9736584199</v>
       </c>
       <c r="E329">
-        <v>658275.85234091198</v>
+        <v>629094.22477101302</v>
       </c>
       <c r="F329">
         <v>0</v>
       </c>
       <c r="G329">
-        <v>944012.69585266104</v>
+        <v>892302.834496503</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -19248,16 +19248,16 @@
         <v>0</v>
       </c>
       <c r="J329">
-        <v>147947.562389962</v>
+        <v>142620.91439090401</v>
       </c>
       <c r="K329">
         <v>0</v>
       </c>
       <c r="L329">
-        <v>0.23082576059462701</v>
+        <v>0.21988148750809999</v>
       </c>
       <c r="M329">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -19268,19 +19268,19 @@
         <v>12.038</v>
       </c>
       <c r="C330">
-        <v>0.30224140657375198</v>
+        <v>0.30456444000261801</v>
       </c>
       <c r="D330">
-        <v>1778864.73452539</v>
+        <v>1689730.9779342299</v>
       </c>
       <c r="E330">
-        <v>663596.01211314695</v>
+        <v>634178.23778748198</v>
       </c>
       <c r="F330">
         <v>0</v>
       </c>
       <c r="G330">
-        <v>966048.49867954198</v>
+        <v>911704.98483005201</v>
       </c>
       <c r="H330">
         <v>0</v>
@@ -19289,16 +19289,16 @@
         <v>0</v>
       </c>
       <c r="J330">
-        <v>149220.22373270401</v>
+        <v>143847.7553167</v>
       </c>
       <c r="K330">
         <v>0</v>
       </c>
       <c r="L330">
-        <v>0.230800539550817</v>
+        <v>0.219854567554537</v>
       </c>
       <c r="M330">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -19309,19 +19309,19 @@
         <v>12.0894444444444</v>
       </c>
       <c r="C331">
-        <v>0.30353303651637498</v>
+        <v>0.30586599743852699</v>
       </c>
       <c r="D331">
-        <v>1807116.83181486</v>
+        <v>1715042.1135014</v>
       </c>
       <c r="E331">
-        <v>668936.29516594997</v>
+        <v>639281.47860552405</v>
       </c>
       <c r="F331">
         <v>0</v>
       </c>
       <c r="G331">
-        <v>987682.20120369003</v>
+        <v>930680.78451665596</v>
       </c>
       <c r="H331">
         <v>0</v>
@@ -19330,16 +19330,16 @@
         <v>0</v>
       </c>
       <c r="J331">
-        <v>150498.33544522201</v>
+        <v>145079.850379223</v>
       </c>
       <c r="K331">
         <v>0</v>
       </c>
       <c r="L331">
-        <v>0.23077544786698401</v>
+        <v>0.21982778535626099</v>
       </c>
       <c r="M331">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -19350,19 +19350,19 @@
         <v>12.140888888888799</v>
       </c>
       <c r="C332">
-        <v>0.30482466645899797</v>
+        <v>0.30716755487443598</v>
       </c>
       <c r="D332">
-        <v>1834958.2463312999</v>
+        <v>1739929.7297084399</v>
       </c>
       <c r="E332">
-        <v>674296.69215658004</v>
+        <v>644403.93829083303</v>
       </c>
       <c r="F332">
         <v>0</v>
       </c>
       <c r="G332">
-        <v>1008879.6566472</v>
+        <v>949208.59183913399</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -19371,16 +19371,16 @@
         <v>0</v>
       </c>
       <c r="J332">
-        <v>151781.897527516</v>
+        <v>146317.19957847401</v>
       </c>
       <c r="K332">
         <v>0</v>
       </c>
       <c r="L332">
-        <v>0.23075048432684001</v>
+        <v>0.21980113961983699</v>
       </c>
       <c r="M332">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -19391,19 +19391,19 @@
         <v>12.1923333333333</v>
       </c>
       <c r="C333">
-        <v>0.30611629640162102</v>
+        <v>0.30846911231034402</v>
       </c>
       <c r="D333">
-        <v>1862360.77980847</v>
+        <v>1764378.0885127101</v>
       </c>
       <c r="E333">
-        <v>679677.19378839806</v>
+        <v>649545.60795318999</v>
       </c>
       <c r="F333">
         <v>0</v>
       </c>
       <c r="G333">
-        <v>1029612.67604049</v>
+        <v>967272.67764507595</v>
       </c>
       <c r="H333">
         <v>0</v>
@@ -19412,16 +19412,16 @@
         <v>0</v>
       </c>
       <c r="J333">
-        <v>153070.90997958599</v>
+        <v>147559.80291445201</v>
       </c>
       <c r="K333">
         <v>0</v>
       </c>
       <c r="L333">
-        <v>0.23072564773066101</v>
+        <v>0.21977462906942899</v>
       </c>
       <c r="M333">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -19432,19 +19432,19 @@
         <v>12.2437777777777</v>
       </c>
       <c r="C334">
-        <v>0.30740792634424402</v>
+        <v>0.309770669746253</v>
       </c>
       <c r="D334">
-        <v>1889302.4261288401</v>
+        <v>1788377.4220620899</v>
       </c>
       <c r="E334">
-        <v>685077.79081043904</v>
+        <v>654706.47874605795</v>
       </c>
       <c r="F334">
         <v>0</v>
       </c>
       <c r="G334">
-        <v>1049859.26251696</v>
+        <v>984863.28292887495</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -19453,16 +19453,16 @@
         <v>0</v>
       </c>
       <c r="J334">
-        <v>154365.372801433</v>
+        <v>148807.660387157</v>
       </c>
       <c r="K334">
         <v>0</v>
       </c>
       <c r="L334">
-        <v>0.23070093689499299</v>
+        <v>0.21974825244648399</v>
       </c>
       <c r="M334">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -19473,19 +19473,19 @@
         <v>12.295222222222201</v>
       </c>
       <c r="C335">
-        <v>0.30869955628686602</v>
+        <v>0.31107222718216199</v>
       </c>
       <c r="D335">
-        <v>1915767.50882549</v>
+        <v>1811923.9043989701</v>
       </c>
       <c r="E335">
-        <v>690498.47401699401</v>
+        <v>659886.54186618805</v>
       </c>
       <c r="F335">
         <v>0</v>
       </c>
       <c r="G335">
-        <v>1069603.7488154301</v>
+        <v>1001976.59053619</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -19494,16 +19494,16 @@
         <v>0</v>
       </c>
       <c r="J335">
-        <v>155665.28599305599</v>
+        <v>150060.771996589</v>
       </c>
       <c r="K335">
         <v>0</v>
       </c>
       <c r="L335">
-        <v>0.230676350652365</v>
+        <v>0.219722008509428</v>
       </c>
       <c r="M335">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -19514,19 +19514,19 @@
         <v>12.3466666666666</v>
       </c>
       <c r="C336">
-        <v>0.30999118622948901</v>
+        <v>0.31237378461807003</v>
       </c>
       <c r="D336">
-        <v>1941746.7245638999</v>
+        <v>1835019.543486</v>
       </c>
       <c r="E336">
-        <v>695939.23424720403</v>
+        <v>665085.78855321801</v>
       </c>
       <c r="F336">
         <v>0</v>
       </c>
       <c r="G336">
-        <v>1088836.8407622401</v>
+        <v>1018614.6171900301</v>
       </c>
       <c r="H336">
         <v>0</v>
@@ -19535,16 +19535,16 @@
         <v>0</v>
       </c>
       <c r="J336">
-        <v>156970.64955445501</v>
+        <v>151319.13774274799</v>
       </c>
       <c r="K336">
         <v>0</v>
       </c>
       <c r="L336">
-        <v>0.23065188785100499</v>
+        <v>0.219695896033368</v>
       </c>
       <c r="M336">
-        <v>0.19033321882888701</v>
+        <v>0.188949101156175</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -19554,90 +19554,85 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+      <c r="B339">
+        <v>0.1</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>103</v>
-      </c>
-      <c r="B340">
-        <v>0.1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B345">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>106</v>
-      </c>
-      <c r="B346">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>21</v>
+        <v>107</v>
+      </c>
+      <c r="B348">
+        <v>41</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B349">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>108</v>
-      </c>
-      <c r="B350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -19649,7 +19644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6064E6FD-9E06-497E-8EFB-BA5CBB0C2BFC}">
   <dimension ref="A2:M350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -29116,7 +29111,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
